--- a/Results/Case 7/pfba_results_case7_test.xlsx
+++ b/Results/Case 7/pfba_results_case7_test.xlsx
@@ -4909,25 +4909,25 @@
         <v>-14.93827133</v>
       </c>
       <c r="AB5" s="2">
-        <v>-13.71412437557057</v>
+        <v>-13.72280136052821</v>
       </c>
       <c r="AC5" s="2">
-        <v>1.224146954429425</v>
+        <v>1.215469969471792</v>
       </c>
       <c r="AD5" s="2">
-        <v>8.194702903615191</v>
+        <v>8.136617300763623</v>
       </c>
       <c r="AE5" s="2">
         <v>-27.55341866</v>
       </c>
       <c r="AF5" s="2">
-        <v>-26.97499071057639</v>
+        <v>-26.98135730960793</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.5784279494236131</v>
+        <v>0.5720613503920688</v>
       </c>
       <c r="AH5" s="2">
-        <v>2.099296484988745</v>
+        <v>2.076190099860621</v>
       </c>
       <c r="AI5" s="2">
         <v>-27.51864533</v>
@@ -4969,13 +4969,13 @@
         <v>-27.14446029</v>
       </c>
       <c r="AV5" s="2">
-        <v>-25.63466382622477</v>
+        <v>-25.62602312683188</v>
       </c>
       <c r="AW5" s="2">
-        <v>1.509796463775235</v>
+        <v>1.518437163168119</v>
       </c>
       <c r="AX5" s="2">
-        <v>5.562079509576555</v>
+        <v>5.593911785114809</v>
       </c>
       <c r="AY5" s="2">
         <v>-26.09305813</v>
@@ -5005,25 +5005,25 @@
         <v>-31.06065037</v>
       </c>
       <c r="BH5" s="2">
-        <v>-30.49984161683437</v>
+        <v>-28.5297621550894</v>
       </c>
       <c r="BI5" s="2">
-        <v>0.5608087531656274</v>
+        <v>2.530888214910604</v>
       </c>
       <c r="BJ5" s="2">
-        <v>1.805528044278448</v>
+        <v>8.14821384859046</v>
       </c>
       <c r="BK5" s="2">
         <v>-20.82975148</v>
       </c>
       <c r="BL5" s="2">
-        <v>-19.19618513399491</v>
+        <v>-18.35951428236652</v>
       </c>
       <c r="BM5" s="2">
-        <v>1.63356634600509</v>
+        <v>2.47023719763348</v>
       </c>
       <c r="BN5" s="2">
-        <v>7.842466807986562</v>
+        <v>11.8591774846921</v>
       </c>
       <c r="BO5" s="2">
         <v>-16.87885419</v>
@@ -5065,25 +5065,25 @@
         <v>-23.16295957</v>
       </c>
       <c r="CB5" s="2">
-        <v>-22.77696433454422</v>
+        <v>-21.74008040731076</v>
       </c>
       <c r="CC5" s="2">
-        <v>0.3859952354557841</v>
+        <v>1.422879162689238</v>
       </c>
       <c r="CD5" s="2">
-        <v>1.666433144215794</v>
+        <v>6.142907422469926</v>
       </c>
       <c r="CE5" s="2">
         <v>-13.40648379</v>
       </c>
       <c r="CF5" s="2">
-        <v>-10.16119527145488</v>
+        <v>-10.14468411219654</v>
       </c>
       <c r="CG5" s="2">
-        <v>3.245288518545117</v>
+        <v>3.261799677803459</v>
       </c>
       <c r="CH5" s="2">
-        <v>24.20685818428992</v>
+        <v>24.33001619885194</v>
       </c>
       <c r="CI5" s="2">
         <v>-24.43659766</v>
@@ -5289,25 +5289,25 @@
         <v>12.84216975</v>
       </c>
       <c r="AB6" s="2">
-        <v>0.5723975238868468</v>
+        <v>0.5716929552386592</v>
       </c>
       <c r="AC6" s="2">
-        <v>12.26977222611315</v>
+        <v>12.27047679476134</v>
       </c>
       <c r="AD6" s="2">
-        <v>95.54282854821439</v>
+        <v>95.54831491587581</v>
       </c>
       <c r="AE6" s="2">
         <v>24.21818063</v>
       </c>
       <c r="AF6" s="2">
-        <v>1.553784671422535</v>
+        <v>1.546019852155642</v>
       </c>
       <c r="AG6" s="2">
-        <v>22.66439595857747</v>
+        <v>22.67216077784436</v>
       </c>
       <c r="AH6" s="2">
-        <v>93.58422213806679</v>
+        <v>93.61628408105716</v>
       </c>
       <c r="AI6" s="2">
         <v>24.2146548</v>
@@ -5349,13 +5349,13 @@
         <v>24.46044733</v>
       </c>
       <c r="AV6" s="2">
-        <v>0.832435116499247</v>
+        <v>0.8331411346000178</v>
       </c>
       <c r="AW6" s="2">
-        <v>23.62801221350075</v>
+        <v>23.62730619539998</v>
       </c>
       <c r="AX6" s="2">
-        <v>96.59681155757814</v>
+        <v>96.59392519130998</v>
       </c>
       <c r="AY6" s="2">
         <v>22.13040994</v>
@@ -5385,25 +5385,25 @@
         <v>27.13509385</v>
       </c>
       <c r="BH6" s="2">
-        <v>0.8264190467671239</v>
+        <v>0.9873911737472754</v>
       </c>
       <c r="BI6" s="2">
-        <v>26.30867480323288</v>
+        <v>26.14770267625272</v>
       </c>
       <c r="BJ6" s="2">
-        <v>96.95442716603272</v>
+        <v>96.36120228953151</v>
       </c>
       <c r="BK6" s="2">
         <v>16.87636761</v>
       </c>
       <c r="BL6" s="2">
-        <v>0.7404202003383958</v>
+        <v>0.8068536456497564</v>
       </c>
       <c r="BM6" s="2">
-        <v>16.1359474096616</v>
+        <v>16.06951396435024</v>
       </c>
       <c r="BN6" s="2">
-        <v>95.61268030272306</v>
+        <v>95.21903252941907</v>
       </c>
       <c r="BO6" s="2">
         <v>14.44997016</v>
@@ -5445,13 +5445,13 @@
         <v>20.49176794</v>
       </c>
       <c r="CB6" s="2">
-        <v>0.637136588337016</v>
+        <v>0.7218587604318101</v>
       </c>
       <c r="CC6" s="2">
-        <v>19.85463135166298</v>
+        <v>19.76990917956819</v>
       </c>
       <c r="CD6" s="2">
-        <v>96.89076808695788</v>
+        <v>96.47732317413794</v>
       </c>
       <c r="CE6" s="2">
         <v>11.08181926</v>
@@ -6019,25 +6019,25 @@
         <v>0.609166852</v>
       </c>
       <c r="AB8" s="2">
-        <v>0.2500388729323905</v>
+        <v>0.2497310981022339</v>
       </c>
       <c r="AC8" s="2">
-        <v>0.3591279790676095</v>
+        <v>0.3594357538977661</v>
       </c>
       <c r="AD8" s="2">
-        <v>58.9539594757217</v>
+        <v>59.00448337227746</v>
       </c>
       <c r="AE8" s="2">
         <v>0.7115849279999999</v>
       </c>
       <c r="AF8" s="2">
-        <v>0.3744947099122973</v>
+        <v>0.3739517652891211</v>
       </c>
       <c r="AG8" s="2">
-        <v>0.3370902180877027</v>
+        <v>0.3376331627108788</v>
       </c>
       <c r="AH8" s="2">
-        <v>47.37174788610794</v>
+        <v>47.44804863417215</v>
       </c>
       <c r="AI8" s="2">
         <v>1.484156135</v>
@@ -6079,13 +6079,13 @@
         <v>0.517056726</v>
       </c>
       <c r="AV8" s="2">
-        <v>0.3636342572871508</v>
+        <v>0.3639426685526253</v>
       </c>
       <c r="AW8" s="2">
-        <v>0.1534224687128491</v>
+        <v>0.1531140574473747</v>
       </c>
       <c r="AX8" s="2">
-        <v>29.67227017811759</v>
+        <v>29.6126227061931</v>
       </c>
       <c r="AY8" s="2">
         <v>0.854877875</v>
@@ -6115,25 +6115,25 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="BH8" s="2">
-        <v>0.361006245799567</v>
+        <v>0.4313240143297171</v>
       </c>
       <c r="BI8" s="2">
-        <v>0.419831816200433</v>
+        <v>0.3495140476702829</v>
       </c>
       <c r="BJ8" s="2">
-        <v>53.76682267832802</v>
+        <v>44.76139992139407</v>
       </c>
       <c r="BK8" s="2">
         <v>1.239645202</v>
       </c>
       <c r="BL8" s="2">
-        <v>0.3925514917458513</v>
+        <v>0.4277727729141286</v>
       </c>
       <c r="BM8" s="2">
-        <v>0.8470937102541487</v>
+        <v>0.8118724290858713</v>
       </c>
       <c r="BN8" s="2">
-        <v>68.33356099692699</v>
+        <v>65.49232213991752</v>
       </c>
       <c r="BO8" s="2">
         <v>0.615675353</v>
@@ -6175,25 +6175,25 @@
         <v>0.709791332</v>
       </c>
       <c r="CB8" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="CC8" s="2">
-        <v>0.4314697120943732</v>
+        <v>0.39446036023641</v>
       </c>
       <c r="CD8" s="2">
-        <v>60.78824756546523</v>
+        <v>55.57413037503957</v>
       </c>
       <c r="CE8" s="2">
         <v>2.122313264</v>
       </c>
       <c r="CF8" s="2">
-        <v>0.2839598075187141</v>
+        <v>0.2845479189599008</v>
       </c>
       <c r="CG8" s="2">
-        <v>1.838353456481286</v>
+        <v>1.837765345040099</v>
       </c>
       <c r="CH8" s="2">
-        <v>86.6202689143296</v>
+        <v>86.59255804566743</v>
       </c>
       <c r="CI8" s="2">
         <v>1.460589758</v>
@@ -6399,10 +6399,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>0.3381199943503042</v>
+        <v>0.3377037997697849</v>
       </c>
       <c r="AC9" s="2">
-        <v>0.3381199943503042</v>
+        <v>0.3377037997697849</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>188</v>
@@ -6411,13 +6411,13 @@
         <v>0.066805982</v>
       </c>
       <c r="AF9" s="2">
-        <v>1.202900175665283</v>
+        <v>1.195644070794841</v>
       </c>
       <c r="AG9" s="2">
-        <v>1.136094193665283</v>
+        <v>1.128838088794841</v>
       </c>
       <c r="AH9" s="2">
-        <v>1700.587521736127</v>
+        <v>1689.726061948826</v>
       </c>
       <c r="AI9" s="2">
         <v>0.30978024</v>
@@ -6459,13 +6459,13 @@
         <v>0.06310534800000001</v>
       </c>
       <c r="AV9" s="2">
-        <v>0.4917263704714435</v>
+        <v>0.4921434212557008</v>
       </c>
       <c r="AW9" s="2">
-        <v>0.4286210224714435</v>
+        <v>0.4290380732557008</v>
       </c>
       <c r="AX9" s="2">
-        <v>679.2150523778801</v>
+        <v>679.87593263205</v>
       </c>
       <c r="AY9" s="2">
         <v>0.047136123</v>
@@ -6495,25 +6495,25 @@
         <v>0.002913575</v>
       </c>
       <c r="BH9" s="2">
-        <v>0.4881726278730764</v>
+        <v>0.5832602066863013</v>
       </c>
       <c r="BI9" s="2">
-        <v>0.4852590528730764</v>
+        <v>0.5803466316863013</v>
       </c>
       <c r="BJ9" s="2">
-        <v>16655.10765547743</v>
+        <v>19918.71263606742</v>
       </c>
       <c r="BK9" s="2">
         <v>0.469873398</v>
       </c>
       <c r="BL9" s="2">
-        <v>0.4373737972469456</v>
+        <v>0.4766167139403954</v>
       </c>
       <c r="BM9" s="2">
-        <v>0.03249960075305441</v>
+        <v>0.0067433159403954</v>
       </c>
       <c r="BN9" s="2">
-        <v>6.916671786780832</v>
+        <v>1.435134648843304</v>
       </c>
       <c r="BO9" s="2">
         <v>0</v>
@@ -6552,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="CB9" s="2">
-        <v>0.3763619000061752</v>
+        <v>0.4264079941183867</v>
       </c>
       <c r="CC9" s="2">
-        <v>0.3763619000061752</v>
+        <v>0.4264079941183867</v>
       </c>
       <c r="CD9" s="2" t="s">
         <v>188</v>
@@ -6564,13 +6564,13 @@
         <v>0.462652892</v>
       </c>
       <c r="CF9" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="CG9" s="2">
-        <v>0.07866672262024027</v>
+        <v>0.07787144577651023</v>
       </c>
       <c r="CH9" s="2">
-        <v>17.00340016900624</v>
+        <v>16.83150524357043</v>
       </c>
       <c r="CI9" s="2">
         <v>0.341371561</v>
@@ -6776,25 +6776,25 @@
         <v>-0.609166852</v>
       </c>
       <c r="AB10" s="2">
-        <v>-0.3381199943503042</v>
+        <v>-0.3377037997697849</v>
       </c>
       <c r="AC10" s="2">
-        <v>0.2710468576496958</v>
+        <v>0.2714630522302151</v>
       </c>
       <c r="AD10" s="2">
-        <v>44.49468265710817</v>
+        <v>44.56300459208426</v>
       </c>
       <c r="AE10" s="2">
         <v>-0.7115849279999999</v>
       </c>
       <c r="AF10" s="2">
-        <v>-1.202900175665283</v>
+        <v>-1.195644070794841</v>
       </c>
       <c r="AG10" s="2">
-        <v>0.4913152476652827</v>
+        <v>0.4840591427948413</v>
       </c>
       <c r="AH10" s="2">
-        <v>69.04520153991832</v>
+        <v>68.02549123059016</v>
       </c>
       <c r="AI10" s="2">
         <v>-1.484156135</v>
@@ -6836,13 +6836,13 @@
         <v>-0.517056726</v>
       </c>
       <c r="AV10" s="2">
-        <v>-0.4917263704714435</v>
+        <v>-0.4921434212557008</v>
       </c>
       <c r="AW10" s="2">
-        <v>0.02533035552855645</v>
+        <v>0.0249133047442992</v>
       </c>
       <c r="AX10" s="2">
-        <v>4.898950976716711</v>
+        <v>4.818292363592462</v>
       </c>
       <c r="AY10" s="2">
         <v>-0.854877875</v>
@@ -6872,25 +6872,25 @@
         <v>-0.7808380620000001</v>
       </c>
       <c r="BH10" s="2">
-        <v>-0.4881726278730764</v>
+        <v>-0.5832602066863013</v>
       </c>
       <c r="BI10" s="2">
-        <v>0.2926654341269237</v>
+        <v>0.1975778553136988</v>
       </c>
       <c r="BJ10" s="2">
-        <v>37.48093854150819</v>
+        <v>25.30330742428623</v>
       </c>
       <c r="BK10" s="2">
         <v>-1.239645202</v>
       </c>
       <c r="BL10" s="2">
-        <v>-0.4373737972469456</v>
+        <v>-0.4766167139403954</v>
       </c>
       <c r="BM10" s="2">
-        <v>0.8022714047530544</v>
+        <v>0.7630284880596045</v>
       </c>
       <c r="BN10" s="2">
-        <v>64.71782437899957</v>
+        <v>61.55216725144914</v>
       </c>
       <c r="BO10" s="2">
         <v>-0.615675353</v>
@@ -6932,25 +6932,25 @@
         <v>-0.709791332</v>
       </c>
       <c r="CB10" s="2">
-        <v>-0.3763619000061752</v>
+        <v>-0.4264079941183867</v>
       </c>
       <c r="CC10" s="2">
-        <v>0.3334294319938248</v>
+        <v>0.2833833378816133</v>
       </c>
       <c r="CD10" s="2">
-        <v>46.97569792157236</v>
+        <v>39.92488004652237</v>
       </c>
       <c r="CE10" s="2">
         <v>-2.122313264</v>
       </c>
       <c r="CF10" s="2">
-        <v>-0.3839861693797597</v>
+        <v>-0.3847814462234898</v>
       </c>
       <c r="CG10" s="2">
-        <v>1.73832709462024</v>
+        <v>1.73753181777651</v>
       </c>
       <c r="CH10" s="2">
-        <v>81.90718703533676</v>
+        <v>81.86971486488859</v>
       </c>
       <c r="CI10" s="2">
         <v>-1.460589758</v>
@@ -7168,13 +7168,13 @@
         <v>-0.370469536</v>
       </c>
       <c r="AF11" s="2">
-        <v>-0.696483723468959</v>
+        <v>-0.689961824136087</v>
       </c>
       <c r="AG11" s="2">
-        <v>0.326014187468959</v>
+        <v>0.319492288136087</v>
       </c>
       <c r="AH11" s="2">
-        <v>88.0002687910509</v>
+        <v>86.23982732444888</v>
       </c>
       <c r="AI11" s="2">
         <v>-1.112619062</v>
@@ -7464,7 +7464,7 @@
         <v>0.213537676</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.213537676</v>
@@ -7476,7 +7476,7 @@
         <v>1.055725766</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I12" s="2">
         <v>1.055725766</v>
@@ -7488,7 +7488,7 @@
         <v>0.052519502</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M12" s="2">
         <v>0.052519502</v>
@@ -7500,7 +7500,7 @@
         <v>0.268459168</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" s="2">
         <v>0.268459168</v>
@@ -7512,7 +7512,7 @@
         <v>0.07662161100000001</v>
       </c>
       <c r="T12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U12" s="2">
         <v>0.07662161100000001</v>
@@ -7524,7 +7524,7 @@
         <v>0.101978606</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" s="2">
         <v>0.101978606</v>
@@ -7536,7 +7536,7 @@
         <v>0.101358877</v>
       </c>
       <c r="AB12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC12" s="2">
         <v>0.101358877</v>
@@ -7548,7 +7548,7 @@
         <v>0.107294456</v>
       </c>
       <c r="AF12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG12" s="2">
         <v>0.107294456</v>
@@ -7560,7 +7560,7 @@
         <v>1.112619062</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" s="2">
         <v>1.112619062</v>
@@ -7572,7 +7572,7 @@
         <v>0.138518121</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO12" s="2">
         <v>0.138518121</v>
@@ -7584,7 +7584,7 @@
         <v>0.009015943</v>
       </c>
       <c r="AR12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS12" s="2">
         <v>0.009015943</v>
@@ -7596,7 +7596,7 @@
         <v>0.125192869</v>
       </c>
       <c r="AV12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW12" s="2">
         <v>0.125192869</v>
@@ -7608,7 +7608,7 @@
         <v>0.047136123</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA12" s="2">
         <v>0.047136123</v>
@@ -7620,7 +7620,7 @@
         <v>0.033061682</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE12" s="2">
         <v>0.033061682</v>
@@ -7632,7 +7632,7 @@
         <v>0.002913575</v>
       </c>
       <c r="BH12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI12" s="2">
         <v>0.002913575</v>
@@ -7644,7 +7644,7 @@
         <v>0.469873398</v>
       </c>
       <c r="BL12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM12" s="2">
         <v>0.469873398</v>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BQ12" s="2">
         <v>0</v>
@@ -7665,7 +7665,7 @@
         <v>0.343324251</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU12" s="2">
         <v>0.343324251</v>
@@ -7677,7 +7677,7 @@
         <v>0.058178487</v>
       </c>
       <c r="BX12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY12" s="2">
         <v>0.058178487</v>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="CB12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC12" s="2">
         <v>0</v>
@@ -7698,7 +7698,7 @@
         <v>0.769504809</v>
       </c>
       <c r="CF12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG12" s="2">
         <v>0.769504809</v>
@@ -7710,7 +7710,7 @@
         <v>0.680740943</v>
       </c>
       <c r="CJ12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK12" s="2">
         <v>0.680740943</v>
@@ -7722,7 +7722,7 @@
         <v>0.9201430350000001</v>
       </c>
       <c r="CN12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO12" s="2">
         <v>0.9201430350000001</v>
@@ -7734,7 +7734,7 @@
         <v>0.941713699</v>
       </c>
       <c r="CR12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS12" s="2">
         <v>0.941713699</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="CV12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW12" s="2">
         <v>0</v>
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DA12" s="2">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>0.222241192</v>
       </c>
       <c r="DD12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" s="2">
         <v>0.222241192</v>
@@ -7776,7 +7776,7 @@
         <v>1.111853633</v>
       </c>
       <c r="DH12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI12" s="2">
         <v>1.111853633</v>
@@ -7788,7 +7788,7 @@
         <v>0.046826242</v>
       </c>
       <c r="DL12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM12" s="2">
         <v>0.046826242</v>
@@ -7800,7 +7800,7 @@
         <v>0.229507055</v>
       </c>
       <c r="DP12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ12" s="2">
         <v>0.229507055</v>
@@ -7812,7 +7812,7 @@
         <v>3.521541776</v>
       </c>
       <c r="DT12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU12" s="2">
         <v>3.521541776</v>
@@ -7904,25 +7904,25 @@
         <v>15.06091557</v>
       </c>
       <c r="AB13" s="2">
-        <v>13.88955648100203</v>
+        <v>13.89801752519086</v>
       </c>
       <c r="AC13" s="2">
-        <v>1.171359088997967</v>
+        <v>1.162898044809143</v>
       </c>
       <c r="AD13" s="2">
-        <v>7.777475967870171</v>
+        <v>7.72129715092177</v>
       </c>
       <c r="AE13" s="2">
         <v>27.11310651</v>
       </c>
       <c r="AF13" s="2">
-        <v>27.23774064641412</v>
+        <v>27.24372630905024</v>
       </c>
       <c r="AG13" s="2">
-        <v>0.124634136414123</v>
+        <v>0.1306197990502369</v>
       </c>
       <c r="AH13" s="2">
-        <v>0.4596822439662338</v>
+        <v>0.4817588829301467</v>
       </c>
       <c r="AI13" s="2">
         <v>27.73379817</v>
@@ -7964,13 +7964,13 @@
         <v>27.12512156</v>
       </c>
       <c r="AV13" s="2">
-        <v>25.88979393952591</v>
+        <v>25.88136962513946</v>
       </c>
       <c r="AW13" s="2">
-        <v>1.235327620474092</v>
+        <v>1.243751934860537</v>
       </c>
       <c r="AX13" s="2">
-        <v>4.554182799666286</v>
+        <v>4.585240040710575</v>
       </c>
       <c r="AY13" s="2">
         <v>25.6656192</v>
@@ -8000,25 +8000,25 @@
         <v>30.42160629</v>
       </c>
       <c r="BH13" s="2">
-        <v>30.75312788606652</v>
+        <v>28.83238420579059</v>
       </c>
       <c r="BI13" s="2">
-        <v>0.3315215960665192</v>
+        <v>1.589222084209407</v>
       </c>
       <c r="BJ13" s="2">
-        <v>1.089757039474589</v>
+        <v>5.223991360153149</v>
       </c>
       <c r="BK13" s="2">
         <v>20.73011097</v>
       </c>
       <c r="BL13" s="2">
-        <v>19.56134044682863</v>
+        <v>18.75743278223134</v>
       </c>
       <c r="BM13" s="2">
-        <v>1.168770523171371</v>
+        <v>1.972678187768658</v>
       </c>
       <c r="BN13" s="2">
-        <v>5.638033124196882</v>
+        <v>9.516003993531241</v>
       </c>
       <c r="BO13" s="2">
         <v>17.04495723</v>
@@ -8060,25 +8060,25 @@
         <v>23.33605442</v>
       </c>
       <c r="CB13" s="2">
-        <v>22.97223808831656</v>
+        <v>21.96132036185629</v>
       </c>
       <c r="CC13" s="2">
-        <v>0.363816331683438</v>
+        <v>1.374734058143712</v>
       </c>
       <c r="CD13" s="2">
-        <v>1.559031038990172</v>
+        <v>5.891030391862243</v>
       </c>
       <c r="CE13" s="2">
         <v>13.49958437</v>
       </c>
       <c r="CF13" s="2">
-        <v>10.36042484461364</v>
+        <v>10.34432631132663</v>
       </c>
       <c r="CG13" s="2">
-        <v>3.139159525386363</v>
+        <v>3.155258058673368</v>
       </c>
       <c r="CH13" s="2">
-        <v>23.25374944403835</v>
+        <v>23.37300151021885</v>
       </c>
       <c r="CI13" s="2">
         <v>24.62280033</v>
@@ -8284,25 +8284,25 @@
         <v>-8.323591</v>
       </c>
       <c r="AB14" s="2">
-        <v>-7.65368579850471</v>
+        <v>-7.654835021096109</v>
       </c>
       <c r="AC14" s="2">
-        <v>0.6699052014952906</v>
+        <v>0.6687559789038913</v>
       </c>
       <c r="AD14" s="2">
-        <v>8.048271491178394</v>
+        <v>8.034464678813402</v>
       </c>
       <c r="AE14" s="2">
         <v>-14.31166329</v>
       </c>
       <c r="AF14" s="2">
-        <v>-13.62427509691376</v>
+        <v>-13.62680074792991</v>
       </c>
       <c r="AG14" s="2">
-        <v>0.6873881930862371</v>
+        <v>0.6848625420700927</v>
       </c>
       <c r="AH14" s="2">
-        <v>4.802993049497863</v>
+        <v>4.785345547841579</v>
       </c>
       <c r="AI14" s="2">
         <v>-14.90132603</v>
@@ -8344,13 +8344,13 @@
         <v>-14.40735818</v>
       </c>
       <c r="AV14" s="2">
-        <v>-13.44494196790206</v>
+        <v>-13.44377955441325</v>
       </c>
       <c r="AW14" s="2">
-        <v>0.9624162120979403</v>
+        <v>0.9635786255867469</v>
       </c>
       <c r="AX14" s="2">
-        <v>6.680032522783717</v>
+        <v>6.688100715954762</v>
       </c>
       <c r="AY14" s="2">
         <v>-13.55913441</v>
@@ -8380,25 +8380,25 @@
         <v>-16.34127019</v>
       </c>
       <c r="BH14" s="2">
-        <v>-15.43653718141877</v>
+        <v>-15.17150690626881</v>
       </c>
       <c r="BI14" s="2">
-        <v>0.9047330085812249</v>
+        <v>1.169763283731189</v>
       </c>
       <c r="BJ14" s="2">
-        <v>5.53649133795532</v>
+        <v>7.158337571867719</v>
       </c>
       <c r="BK14" s="2">
         <v>-11.15387621</v>
       </c>
       <c r="BL14" s="2">
-        <v>-10.5190717842243</v>
+        <v>-10.40452092535618</v>
       </c>
       <c r="BM14" s="2">
-        <v>0.6348044257756982</v>
+        <v>0.7493552846438192</v>
       </c>
       <c r="BN14" s="2">
-        <v>5.691334687815208</v>
+        <v>6.718339620552586</v>
       </c>
       <c r="BO14" s="2">
         <v>-9.12174259</v>
@@ -8440,25 +8440,25 @@
         <v>-12.4105939</v>
       </c>
       <c r="CB14" s="2">
-        <v>-11.59606592416218</v>
+        <v>-11.45657630566086</v>
       </c>
       <c r="CC14" s="2">
-        <v>0.8145279758378194</v>
+        <v>0.9540175943391382</v>
       </c>
       <c r="CD14" s="2">
-        <v>6.563166778326535</v>
+        <v>7.687122808354387</v>
       </c>
       <c r="CE14" s="2">
         <v>-7.543047144</v>
       </c>
       <c r="CF14" s="2">
-        <v>-6.513239397998865</v>
+        <v>-6.510160156158318</v>
       </c>
       <c r="CG14" s="2">
-        <v>1.029807746001135</v>
+        <v>1.032886987841682</v>
       </c>
       <c r="CH14" s="2">
-        <v>13.65241031033831</v>
+        <v>13.69323256402124</v>
       </c>
       <c r="CI14" s="2">
         <v>-13.55575456</v>
@@ -8664,25 +8664,25 @@
         <v>15.06091557</v>
       </c>
       <c r="AB15" s="2">
-        <v>15.36463194418415</v>
+        <v>15.36749096417256</v>
       </c>
       <c r="AC15" s="2">
-        <v>0.3037163741841464</v>
+        <v>0.30657539417256</v>
       </c>
       <c r="AD15" s="2">
-        <v>2.016586393918324</v>
+        <v>2.035569436317874</v>
       </c>
       <c r="AE15" s="2">
         <v>27.11310651</v>
       </c>
       <c r="AF15" s="2">
-        <v>27.5438473998268</v>
+        <v>27.54938926709951</v>
       </c>
       <c r="AG15" s="2">
-        <v>0.4307408898268008</v>
+        <v>0.4362827570995087</v>
       </c>
       <c r="AH15" s="2">
-        <v>1.588681435924477</v>
+        <v>1.609121245249402</v>
       </c>
       <c r="AI15" s="2">
         <v>27.73379817</v>
@@ -8724,13 +8724,13 @@
         <v>27.12512156</v>
       </c>
       <c r="AV15" s="2">
-        <v>27.12484726310103</v>
+        <v>27.12197153478612</v>
       </c>
       <c r="AW15" s="2">
-        <v>0.000274296898968629</v>
+        <v>0.003150025213884078</v>
       </c>
       <c r="AX15" s="2">
-        <v>0.001011228275463732</v>
+        <v>0.01161294413710299</v>
       </c>
       <c r="AY15" s="2">
         <v>25.6656192</v>
@@ -8760,25 +8760,25 @@
         <v>30.42160629</v>
       </c>
       <c r="BH15" s="2">
-        <v>31.23104184943216</v>
+        <v>30.5753757939217</v>
       </c>
       <c r="BI15" s="2">
-        <v>0.8094355594321634</v>
+        <v>0.1537695039217049</v>
       </c>
       <c r="BJ15" s="2">
-        <v>2.66072590551616</v>
+        <v>0.5054614883115195</v>
       </c>
       <c r="BK15" s="2">
         <v>20.73011097</v>
       </c>
       <c r="BL15" s="2">
-        <v>21.15316691856369</v>
+        <v>20.87119965372446</v>
       </c>
       <c r="BM15" s="2">
-        <v>0.4230559485636931</v>
+        <v>0.1410886837244583</v>
       </c>
       <c r="BN15" s="2">
-        <v>2.040779951327454</v>
+        <v>0.6805978218285355</v>
       </c>
       <c r="BO15" s="2">
         <v>17.04495723</v>
@@ -8820,25 +8820,25 @@
         <v>23.33605442</v>
       </c>
       <c r="CB15" s="2">
-        <v>23.44990788394482</v>
+        <v>23.10482048630643</v>
       </c>
       <c r="CC15" s="2">
-        <v>0.113853463944821</v>
+        <v>0.23123393369357</v>
       </c>
       <c r="CD15" s="2">
-        <v>0.4878865205561214</v>
+        <v>0.9908870177102116</v>
       </c>
       <c r="CE15" s="2">
         <v>13.49958437</v>
       </c>
       <c r="CF15" s="2">
-        <v>12.93575957576117</v>
+        <v>12.92941320277341</v>
       </c>
       <c r="CG15" s="2">
-        <v>0.5638247942388261</v>
+        <v>0.5701711672265919</v>
       </c>
       <c r="CH15" s="2">
-        <v>4.176608544273472</v>
+        <v>4.223620161919043</v>
       </c>
       <c r="CI15" s="2">
         <v>24.62280033</v>
@@ -9044,25 +9044,25 @@
         <v>8.323591</v>
       </c>
       <c r="AB16" s="2">
-        <v>7.524236035709749</v>
+        <v>7.524913542019296</v>
       </c>
       <c r="AC16" s="2">
-        <v>0.7993549642902513</v>
+        <v>0.7986774579807046</v>
       </c>
       <c r="AD16" s="2">
-        <v>9.603486815849688</v>
+        <v>9.59534722430144</v>
       </c>
       <c r="AE16" s="2">
         <v>14.31166329</v>
       </c>
       <c r="AF16" s="2">
-        <v>13.22085763393114</v>
+        <v>13.2230494730885</v>
       </c>
       <c r="AG16" s="2">
-        <v>1.090805656068861</v>
+        <v>1.088613816911497</v>
       </c>
       <c r="AH16" s="2">
-        <v>7.621795132862304</v>
+        <v>7.606480077491379</v>
       </c>
       <c r="AI16" s="2">
         <v>14.90132603</v>
@@ -9104,13 +9104,13 @@
         <v>14.40735818</v>
       </c>
       <c r="AV16" s="2">
-        <v>13.10499390168842</v>
+        <v>13.10429334821164</v>
       </c>
       <c r="AW16" s="2">
-        <v>1.302364278311577</v>
+        <v>1.303064831788356</v>
       </c>
       <c r="AX16" s="2">
-        <v>9.039577291272543</v>
+        <v>9.04443976132449</v>
       </c>
       <c r="AY16" s="2">
         <v>13.55913441</v>
@@ -9140,25 +9140,25 @@
         <v>16.34127019</v>
       </c>
       <c r="BH16" s="2">
-        <v>14.97434368832707</v>
+        <v>14.81461749622401</v>
       </c>
       <c r="BI16" s="2">
-        <v>1.366926501672925</v>
+        <v>1.52665269377599</v>
       </c>
       <c r="BJ16" s="2">
-        <v>8.364873022596568</v>
+        <v>9.342313516792723</v>
       </c>
       <c r="BK16" s="2">
         <v>11.15387621</v>
       </c>
       <c r="BL16" s="2">
-        <v>10.24155504071667</v>
+        <v>10.16529017539739</v>
       </c>
       <c r="BM16" s="2">
-        <v>0.9123211692833344</v>
+        <v>0.9885860346026067</v>
       </c>
       <c r="BN16" s="2">
-        <v>8.179409131915893</v>
+        <v>8.863161254347531</v>
       </c>
       <c r="BO16" s="2">
         <v>9.12174259</v>
@@ -9200,25 +9200,25 @@
         <v>12.4105939</v>
       </c>
       <c r="CB16" s="2">
-        <v>11.25793573594163</v>
+        <v>11.17386931904258</v>
       </c>
       <c r="CC16" s="2">
-        <v>1.152658164058366</v>
+        <v>1.23672458095742</v>
       </c>
       <c r="CD16" s="2">
-        <v>9.287695442668264</v>
+        <v>9.965071703437332</v>
       </c>
       <c r="CE16" s="2">
         <v>7.543047144</v>
       </c>
       <c r="CF16" s="2">
-        <v>6.516703828985617</v>
+        <v>6.513631762355951</v>
       </c>
       <c r="CG16" s="2">
-        <v>1.026343315014383</v>
+        <v>1.029415381644049</v>
       </c>
       <c r="CH16" s="2">
-        <v>13.60648151100013</v>
+        <v>13.64720864117735</v>
       </c>
       <c r="CI16" s="2">
         <v>13.55575456</v>
@@ -9436,13 +9436,13 @@
         <v>-0.211552276</v>
       </c>
       <c r="AF17" s="2">
-        <v>-0.1866936216445697</v>
+        <v>-0.1864229521388037</v>
       </c>
       <c r="AG17" s="2">
-        <v>0.0248586543554303</v>
+        <v>0.02512932386119635</v>
       </c>
       <c r="AH17" s="2">
-        <v>11.75059650761228</v>
+        <v>11.8785410095027</v>
       </c>
       <c r="AI17" s="2">
         <v>-0.20818029</v>
@@ -9484,13 +9484,13 @@
         <v>-0.212726094</v>
       </c>
       <c r="AV17" s="2">
-        <v>-0.1812794537547899</v>
+        <v>-0.1814332033661801</v>
       </c>
       <c r="AW17" s="2">
-        <v>0.03144664024521013</v>
+        <v>0.03129289063381988</v>
       </c>
       <c r="AX17" s="2">
-        <v>14.78269057354577</v>
+        <v>14.71041471471754</v>
       </c>
       <c r="AY17" s="2">
         <v>-0.223896586</v>
@@ -9520,25 +9520,25 @@
         <v>-0.202979048</v>
       </c>
       <c r="BH17" s="2">
-        <v>-0.179969333826894</v>
+        <v>-0.2150242452191843</v>
       </c>
       <c r="BI17" s="2">
-        <v>0.02300971417310599</v>
+        <v>0.01204519721918429</v>
       </c>
       <c r="BJ17" s="2">
-        <v>11.33600457772666</v>
+        <v>5.934207169591361</v>
       </c>
       <c r="BK17" s="2">
         <v>-0.204165364</v>
       </c>
       <c r="BL17" s="2">
-        <v>-0.1612406110945058</v>
+        <v>-0.1757077600380716</v>
       </c>
       <c r="BM17" s="2">
-        <v>0.04292475290549422</v>
+        <v>0.0284576039619284</v>
       </c>
       <c r="BN17" s="2">
-        <v>21.02450291494801</v>
+        <v>13.9385072004321</v>
       </c>
       <c r="BO17" s="2">
         <v>-0.207877462</v>
@@ -9580,25 +9580,25 @@
         <v>-0.214064053</v>
       </c>
       <c r="CB17" s="2">
-        <v>-0.1387492795674386</v>
+        <v>-0.1571992329318312</v>
       </c>
       <c r="CC17" s="2">
-        <v>0.0753147734325614</v>
+        <v>0.05686482006816881</v>
       </c>
       <c r="CD17" s="2">
-        <v>35.18328854240716</v>
+        <v>26.56439475532532</v>
       </c>
       <c r="CE17" s="2">
         <v>-0.198551241</v>
       </c>
       <c r="CF17" s="2">
-        <v>-0.1415600366679661</v>
+        <v>-0.1418532227984727</v>
       </c>
       <c r="CG17" s="2">
-        <v>0.05699120433203392</v>
+        <v>0.05669801820152726</v>
       </c>
       <c r="CH17" s="2">
-        <v>28.70352461409895</v>
+        <v>28.55586191049154</v>
       </c>
       <c r="CI17" s="2">
         <v>-0.209227731</v>
@@ -9804,25 +9804,25 @@
         <v>0.609166852</v>
       </c>
       <c r="AB18" s="2">
-        <v>0.2500388729323905</v>
+        <v>0.2497310981022339</v>
       </c>
       <c r="AC18" s="2">
-        <v>0.3591279790676095</v>
+        <v>0.3594357538977661</v>
       </c>
       <c r="AD18" s="2">
-        <v>58.9539594757217</v>
+        <v>59.00448337227746</v>
       </c>
       <c r="AE18" s="2">
         <v>0.7115849279999999</v>
       </c>
       <c r="AF18" s="2">
-        <v>0.3744947099122973</v>
+        <v>0.3739517652891211</v>
       </c>
       <c r="AG18" s="2">
-        <v>0.3370902180877027</v>
+        <v>0.3376331627108788</v>
       </c>
       <c r="AH18" s="2">
-        <v>47.37174788610794</v>
+        <v>47.44804863417215</v>
       </c>
       <c r="AI18" s="2">
         <v>1.484156135</v>
@@ -9864,13 +9864,13 @@
         <v>0.517056726</v>
       </c>
       <c r="AV18" s="2">
-        <v>0.3636342572871508</v>
+        <v>0.3639426685526253</v>
       </c>
       <c r="AW18" s="2">
-        <v>0.1534224687128491</v>
+        <v>0.1531140574473747</v>
       </c>
       <c r="AX18" s="2">
-        <v>29.67227017811759</v>
+        <v>29.6126227061931</v>
       </c>
       <c r="AY18" s="2">
         <v>0.854877875</v>
@@ -9900,25 +9900,25 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="BH18" s="2">
-        <v>0.361006245799567</v>
+        <v>0.4313240143297171</v>
       </c>
       <c r="BI18" s="2">
-        <v>0.419831816200433</v>
+        <v>0.3495140476702829</v>
       </c>
       <c r="BJ18" s="2">
-        <v>53.76682267832802</v>
+        <v>44.76139992139407</v>
       </c>
       <c r="BK18" s="2">
         <v>1.239645202</v>
       </c>
       <c r="BL18" s="2">
-        <v>0.3925514917458513</v>
+        <v>0.4277727729141286</v>
       </c>
       <c r="BM18" s="2">
-        <v>0.8470937102541487</v>
+        <v>0.8118724290858713</v>
       </c>
       <c r="BN18" s="2">
-        <v>68.33356099692699</v>
+        <v>65.49232213991752</v>
       </c>
       <c r="BO18" s="2">
         <v>0.615675353</v>
@@ -9960,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="CB18" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="CC18" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="CD18" s="2" t="s">
         <v>188</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="CF18" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="CG18" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="CH18" s="2" t="s">
         <v>188</v>
@@ -10184,25 +10184,25 @@
         <v>-15.06091557</v>
       </c>
       <c r="AB19" s="2">
-        <v>-15.36463194418415</v>
+        <v>-15.36749096417256</v>
       </c>
       <c r="AC19" s="2">
-        <v>0.3037163741841464</v>
+        <v>0.30657539417256</v>
       </c>
       <c r="AD19" s="2">
-        <v>2.016586393918324</v>
+        <v>2.035569436317874</v>
       </c>
       <c r="AE19" s="2">
         <v>-27.11310651</v>
       </c>
       <c r="AF19" s="2">
-        <v>-27.5438473998268</v>
+        <v>-27.54938926709951</v>
       </c>
       <c r="AG19" s="2">
-        <v>0.4307408898268008</v>
+        <v>0.4362827570995087</v>
       </c>
       <c r="AH19" s="2">
-        <v>1.588681435924477</v>
+        <v>1.609121245249402</v>
       </c>
       <c r="AI19" s="2">
         <v>-27.73379817</v>
@@ -10244,13 +10244,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="AV19" s="2">
-        <v>-27.12484726310103</v>
+        <v>-27.12197153478612</v>
       </c>
       <c r="AW19" s="2">
-        <v>0.000274296898968629</v>
+        <v>0.003150025213884078</v>
       </c>
       <c r="AX19" s="2">
-        <v>0.001011228275463732</v>
+        <v>0.01161294413710299</v>
       </c>
       <c r="AY19" s="2">
         <v>-25.6656192</v>
@@ -10280,25 +10280,25 @@
         <v>-30.42160629</v>
       </c>
       <c r="BH19" s="2">
-        <v>-31.23104184943216</v>
+        <v>-30.5753757939217</v>
       </c>
       <c r="BI19" s="2">
-        <v>0.8094355594321634</v>
+        <v>0.1537695039217049</v>
       </c>
       <c r="BJ19" s="2">
-        <v>2.66072590551616</v>
+        <v>0.5054614883115195</v>
       </c>
       <c r="BK19" s="2">
         <v>-20.73011097</v>
       </c>
       <c r="BL19" s="2">
-        <v>-21.15316691856369</v>
+        <v>-20.87119965372446</v>
       </c>
       <c r="BM19" s="2">
-        <v>0.4230559485636931</v>
+        <v>0.1410886837244583</v>
       </c>
       <c r="BN19" s="2">
-        <v>2.040779951327454</v>
+        <v>0.6805978218285355</v>
       </c>
       <c r="BO19" s="2">
         <v>-17.04495723</v>
@@ -10340,25 +10340,25 @@
         <v>0.709791332</v>
       </c>
       <c r="CB19" s="2">
-        <v>-23.44990788394482</v>
+        <v>-23.10482048630643</v>
       </c>
       <c r="CC19" s="2">
-        <v>24.15969921594482</v>
+        <v>23.81461181830643</v>
       </c>
       <c r="CD19" s="2">
-        <v>3403.774902106697</v>
+        <v>3355.156754479277</v>
       </c>
       <c r="CE19" s="2">
         <v>2.122313264</v>
       </c>
       <c r="CF19" s="2">
-        <v>-12.93575957576117</v>
+        <v>-12.92941320277341</v>
       </c>
       <c r="CG19" s="2">
-        <v>15.05807283976118</v>
+        <v>15.05172646677341</v>
       </c>
       <c r="CH19" s="2">
-        <v>709.5122616997966</v>
+        <v>709.2132307746538</v>
       </c>
       <c r="CI19" s="2">
         <v>1.460589758</v>
@@ -10564,25 +10564,25 @@
         <v>-15.06091557</v>
       </c>
       <c r="AB20" s="2">
-        <v>-13.88955648100203</v>
+        <v>-13.89801752519086</v>
       </c>
       <c r="AC20" s="2">
-        <v>1.171359088997967</v>
+        <v>1.162898044809143</v>
       </c>
       <c r="AD20" s="2">
-        <v>7.777475967870171</v>
+        <v>7.72129715092177</v>
       </c>
       <c r="AE20" s="2">
         <v>-27.11310651</v>
       </c>
       <c r="AF20" s="2">
-        <v>-27.23774064641412</v>
+        <v>-27.24372630905024</v>
       </c>
       <c r="AG20" s="2">
-        <v>0.124634136414123</v>
+        <v>0.1306197990502369</v>
       </c>
       <c r="AH20" s="2">
-        <v>0.4596822439662338</v>
+        <v>0.4817588829301467</v>
       </c>
       <c r="AI20" s="2">
         <v>-27.73379817</v>
@@ -10624,13 +10624,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="AV20" s="2">
-        <v>-25.88979393952591</v>
+        <v>-25.88136962513946</v>
       </c>
       <c r="AW20" s="2">
-        <v>1.235327620474092</v>
+        <v>1.243751934860537</v>
       </c>
       <c r="AX20" s="2">
-        <v>4.554182799666286</v>
+        <v>4.585240040710575</v>
       </c>
       <c r="AY20" s="2">
         <v>-25.6656192</v>
@@ -10660,25 +10660,25 @@
         <v>-30.42160629</v>
       </c>
       <c r="BH20" s="2">
-        <v>-30.75312788606652</v>
+        <v>-28.83238420579059</v>
       </c>
       <c r="BI20" s="2">
-        <v>0.3315215960665192</v>
+        <v>1.589222084209407</v>
       </c>
       <c r="BJ20" s="2">
-        <v>1.089757039474589</v>
+        <v>5.223991360153149</v>
       </c>
       <c r="BK20" s="2">
         <v>-20.73011097</v>
       </c>
       <c r="BL20" s="2">
-        <v>-19.56134044682863</v>
+        <v>-18.75743278223134</v>
       </c>
       <c r="BM20" s="2">
-        <v>1.168770523171371</v>
+        <v>1.972678187768658</v>
       </c>
       <c r="BN20" s="2">
-        <v>5.638033124196882</v>
+        <v>9.516003993531241</v>
       </c>
       <c r="BO20" s="2">
         <v>-17.04495723</v>
@@ -10720,25 +10720,25 @@
         <v>-23.33605442</v>
       </c>
       <c r="CB20" s="2">
-        <v>-22.97223808831656</v>
+        <v>-21.96132036185629</v>
       </c>
       <c r="CC20" s="2">
-        <v>0.363816331683438</v>
+        <v>1.374734058143712</v>
       </c>
       <c r="CD20" s="2">
-        <v>1.559031038990172</v>
+        <v>5.891030391862243</v>
       </c>
       <c r="CE20" s="2">
         <v>-13.49958437</v>
       </c>
       <c r="CF20" s="2">
-        <v>-10.36042484461364</v>
+        <v>-10.34432631132663</v>
       </c>
       <c r="CG20" s="2">
-        <v>3.139159525386363</v>
+        <v>3.155258058673368</v>
       </c>
       <c r="CH20" s="2">
-        <v>23.25374944403835</v>
+        <v>23.37300151021885</v>
       </c>
       <c r="CI20" s="2">
         <v>-24.62280033</v>
@@ -10944,25 +10944,25 @@
         <v>0.889930942</v>
       </c>
       <c r="AB21" s="2">
-        <v>0.4114301592260023</v>
+        <v>0.4128168976447339</v>
       </c>
       <c r="AC21" s="2">
-        <v>0.4785007827739977</v>
+        <v>0.4771140443552661</v>
       </c>
       <c r="AD21" s="2">
-        <v>53.76830495393627</v>
+        <v>53.61247955746055</v>
       </c>
       <c r="AE21" s="2">
         <v>1.256154901</v>
       </c>
       <c r="AF21" s="2">
-        <v>1.24482130276022</v>
+        <v>1.24577262012292</v>
       </c>
       <c r="AG21" s="2">
-        <v>0.01133359823977953</v>
+        <v>0.01038228087707971</v>
       </c>
       <c r="AH21" s="2">
-        <v>0.9022452749065484</v>
+        <v>0.8265127866646526</v>
       </c>
       <c r="AI21" s="2">
         <v>0.788893731</v>
@@ -11004,13 +11004,13 @@
         <v>1.22750081</v>
       </c>
       <c r="AV21" s="2">
-        <v>1.053410604164542</v>
+        <v>1.052053493001792</v>
       </c>
       <c r="AW21" s="2">
-        <v>0.1740902058354583</v>
+        <v>0.175447316998208</v>
       </c>
       <c r="AX21" s="2">
-        <v>14.18249213501198</v>
+        <v>14.29305101625212</v>
       </c>
       <c r="AY21" s="2">
         <v>1.605842023</v>
@@ -11040,25 +11040,25 @@
         <v>1.628688346</v>
       </c>
       <c r="BH21" s="2">
-        <v>1.419904297920434</v>
+        <v>1.110482951896534</v>
       </c>
       <c r="BI21" s="2">
-        <v>0.2087840480795662</v>
+        <v>0.5182053941034663</v>
       </c>
       <c r="BJ21" s="2">
-        <v>12.81915282271973</v>
+        <v>31.81734525062208</v>
       </c>
       <c r="BK21" s="2">
         <v>1.351008128</v>
       </c>
       <c r="BL21" s="2">
-        <v>0.7932923761541337</v>
+        <v>0.6749120246699765</v>
       </c>
       <c r="BM21" s="2">
-        <v>0.5577157518458662</v>
+        <v>0.6760961033300235</v>
       </c>
       <c r="BN21" s="2">
-        <v>41.28145051736256</v>
+        <v>50.04382204057498</v>
       </c>
       <c r="BO21" s="2">
         <v>0.701213447</v>
@@ -11100,13 +11100,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="CB21" s="2">
-        <v>1.040081918467076</v>
+        <v>0.8772285784586145</v>
       </c>
       <c r="CC21" s="2">
-        <v>24.37613633846708</v>
+        <v>24.21328299845861</v>
       </c>
       <c r="CD21" s="2">
-        <v>104.4569741728734</v>
+        <v>103.7591126703355</v>
       </c>
       <c r="CE21" s="2">
         <v>-13.49958437</v>
@@ -11324,25 +11324,25 @@
         <v>-0.291913566</v>
       </c>
       <c r="AB22" s="2">
-        <v>-0.1325003762781485</v>
+        <v>-0.13296833753569</v>
       </c>
       <c r="AC22" s="2">
-        <v>0.1594131897218515</v>
+        <v>0.15894522846431</v>
       </c>
       <c r="AD22" s="2">
-        <v>54.60972297596184</v>
+        <v>54.44941481901186</v>
       </c>
       <c r="AE22" s="2">
         <v>-0.411970221</v>
       </c>
       <c r="AF22" s="2">
-        <v>-0.4079864584638234</v>
+        <v>-0.4083136461662026</v>
       </c>
       <c r="AG22" s="2">
-        <v>0.003983762536176605</v>
+        <v>0.003656574833797388</v>
       </c>
       <c r="AH22" s="2">
-        <v>0.9670025485110499</v>
+        <v>0.8875823172173863</v>
       </c>
       <c r="AI22" s="2">
         <v>-0.254995953</v>
@@ -11384,13 +11384,13 @@
         <v>-0.401024311</v>
       </c>
       <c r="AV22" s="2">
-        <v>-0.3443845595321762</v>
+        <v>-0.3439264622693711</v>
       </c>
       <c r="AW22" s="2">
-        <v>0.05663975146782385</v>
+        <v>0.0570978487306289</v>
       </c>
       <c r="AX22" s="2">
-        <v>14.1237700344366</v>
+        <v>14.2380018279313</v>
       </c>
       <c r="AY22" s="2">
         <v>-0.527067562</v>
@@ -11420,25 +11420,25 @@
         <v>-0.534155391</v>
       </c>
       <c r="BH22" s="2">
-        <v>-0.4665979235471501</v>
+        <v>-0.3621517473228524</v>
       </c>
       <c r="BI22" s="2">
-        <v>0.06755746745284991</v>
+        <v>0.1720036436771476</v>
       </c>
       <c r="BJ22" s="2">
-        <v>12.64753077309107</v>
+        <v>32.20104983966128</v>
       </c>
       <c r="BK22" s="2">
         <v>-0.441544233</v>
       </c>
       <c r="BL22" s="2">
-        <v>-0.2814628216702824</v>
+        <v>-0.2435308859492616</v>
       </c>
       <c r="BM22" s="2">
-        <v>0.1600814113297176</v>
+        <v>0.1980133470507384</v>
       </c>
       <c r="BN22" s="2">
-        <v>36.25489800694953</v>
+        <v>44.84564223732901</v>
       </c>
       <c r="BO22" s="2">
         <v>-0.227770042</v>
@@ -11480,25 +11480,25 @@
         <v>0.936146144</v>
       </c>
       <c r="CB22" s="2">
-        <v>-0.3415258309092417</v>
+        <v>-0.2865541592136092</v>
       </c>
       <c r="CC22" s="2">
-        <v>1.277671974909242</v>
+        <v>1.222700303213609</v>
       </c>
       <c r="CD22" s="2">
-        <v>136.4821062499876</v>
+        <v>130.6099812566882</v>
       </c>
       <c r="CE22" s="2">
         <v>0.306851918</v>
       </c>
       <c r="CF22" s="2">
-        <v>0.0052728371708083</v>
+        <v>0.005283757786285113</v>
       </c>
       <c r="CG22" s="2">
-        <v>0.3015790808291917</v>
+        <v>0.3015681602137149</v>
       </c>
       <c r="CH22" s="2">
-        <v>98.28163460565096</v>
+        <v>98.27807568526097</v>
       </c>
       <c r="CI22" s="2">
         <v>0.76683465</v>
@@ -11632,7 +11632,7 @@
         <v>0.594636015</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.594636015</v>
@@ -11644,7 +11644,7 @@
         <v>0.411916123</v>
       </c>
       <c r="H23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
         <v>0.411916123</v>
@@ -11656,7 +11656,7 @@
         <v>0.03468269</v>
       </c>
       <c r="L23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0.03468269</v>
@@ -11668,7 +11668,7 @@
         <v>0.376047766</v>
       </c>
       <c r="P23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0.376047766</v>
@@ -11680,7 +11680,7 @@
         <v>0.532152835</v>
       </c>
       <c r="T23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U23" s="2">
         <v>0.532152835</v>
@@ -11692,7 +11692,7 @@
         <v>0.407914424</v>
       </c>
       <c r="X23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="2">
         <v>0.407914424</v>
@@ -11704,7 +11704,7 @@
         <v>0.291913566</v>
       </c>
       <c r="AB23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="2">
         <v>0.291913566</v>
@@ -11716,7 +11716,7 @@
         <v>0.411970221</v>
       </c>
       <c r="AF23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="2">
         <v>0.411970221</v>
@@ -11728,7 +11728,7 @@
         <v>0.254995953</v>
       </c>
       <c r="AJ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="2">
         <v>0.254995953</v>
@@ -11740,7 +11740,7 @@
         <v>0.334250249</v>
       </c>
       <c r="AN23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="2">
         <v>0.334250249</v>
@@ -11752,7 +11752,7 @@
         <v>0.538953027</v>
       </c>
       <c r="AR23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="2">
         <v>0.538953027</v>
@@ -11764,7 +11764,7 @@
         <v>0.401024311</v>
       </c>
       <c r="AV23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="2">
         <v>0.401024311</v>
@@ -11776,7 +11776,7 @@
         <v>0.527067562</v>
       </c>
       <c r="AZ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0.527067562</v>
@@ -11788,7 +11788,7 @@
         <v>0.27351028</v>
       </c>
       <c r="BD23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
         <v>0.27351028</v>
@@ -11800,7 +11800,7 @@
         <v>0.534155391</v>
       </c>
       <c r="BH23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="2">
         <v>0.534155391</v>
@@ -11812,7 +11812,7 @@
         <v>0.441544233</v>
       </c>
       <c r="BL23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM23" s="2">
         <v>0.441544233</v>
@@ -11824,7 +11824,7 @@
         <v>0.227770042</v>
       </c>
       <c r="BP23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="2">
         <v>0.227770042</v>
@@ -11836,7 +11836,7 @@
         <v>0.505177112</v>
       </c>
       <c r="BT23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="2">
         <v>0.505177112</v>
@@ -11848,7 +11848,7 @@
         <v>-0.409290762</v>
       </c>
       <c r="BX23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="2">
         <v>0.409290762</v>
@@ -11860,7 +11860,7 @@
         <v>-0.306244745</v>
       </c>
       <c r="CB23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="2">
         <v>0.306244745</v>
@@ -11872,19 +11872,19 @@
         <v>-0.09880061800000001</v>
       </c>
       <c r="CF23" s="2">
-        <v>0.0052728371708083</v>
+        <v>-0.005283757786285113</v>
       </c>
       <c r="CG23" s="2">
-        <v>0.1040734551708083</v>
+        <v>0.09351686021371489</v>
       </c>
       <c r="CH23" s="2">
-        <v>105.3368463452408</v>
+        <v>94.65210046936637</v>
       </c>
       <c r="CI23" s="2">
         <v>-0.247269136</v>
       </c>
       <c r="CJ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK23" s="2">
         <v>0.247269136</v>
@@ -11896,7 +11896,7 @@
         <v>-0.326405473</v>
       </c>
       <c r="CN23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO23" s="2">
         <v>0.326405473</v>
@@ -11908,7 +11908,7 @@
         <v>-0.134530528</v>
       </c>
       <c r="CR23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS23" s="2">
         <v>0.134530528</v>
@@ -11920,7 +11920,7 @@
         <v>-0.306244745</v>
       </c>
       <c r="CV23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW23" s="2">
         <v>0.306244745</v>
@@ -11932,7 +11932,7 @@
         <v>-0.457097918</v>
       </c>
       <c r="CZ23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DA23" s="2">
         <v>0.457097918</v>
@@ -11944,7 +11944,7 @@
         <v>-0.210228155</v>
       </c>
       <c r="DD23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE23" s="2">
         <v>0.210228155</v>
@@ -11956,7 +11956,7 @@
         <v>-0.205394262</v>
       </c>
       <c r="DH23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DI23" s="2">
         <v>0.205394262</v>
@@ -11968,7 +11968,7 @@
         <v>-0.354683877</v>
       </c>
       <c r="DL23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM23" s="2">
         <v>0.354683877</v>
@@ -11980,7 +11980,7 @@
         <v>-0.170005226</v>
       </c>
       <c r="DP23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ23" s="2">
         <v>0.170005226</v>
@@ -11992,13 +11992,13 @@
         <v>-0.023003539</v>
       </c>
       <c r="DT23" s="2">
-        <v>0.004845849220161721</v>
+        <v>-0.004845849220161721</v>
       </c>
       <c r="DU23" s="2">
-        <v>0.02784938822016172</v>
+        <v>0.01815768977983828</v>
       </c>
       <c r="DV23" s="2">
-        <v>121.0656682876566</v>
+        <v>78.93433171234338</v>
       </c>
     </row>
     <row r="24" spans="1:126">
@@ -12084,25 +12084,25 @@
         <v>0.23109824</v>
       </c>
       <c r="AB24" s="2">
-        <v>0.04478432356241857</v>
+        <v>0.04536025520436482</v>
       </c>
       <c r="AC24" s="2">
-        <v>0.1863139164375814</v>
+        <v>0.1857379847956352</v>
       </c>
       <c r="AD24" s="2">
-        <v>80.6210884330324</v>
+        <v>80.37187336244325</v>
       </c>
       <c r="AE24" s="2">
         <v>0.31277346</v>
       </c>
       <c r="AF24" s="2">
-        <v>0.2766114905449532</v>
+        <v>0.2771291464450493</v>
       </c>
       <c r="AG24" s="2">
-        <v>0.03616196945504679</v>
+        <v>0.03564431355495074</v>
       </c>
       <c r="AH24" s="2">
-        <v>11.56171289438906</v>
+        <v>11.39620783520147</v>
       </c>
       <c r="AI24" s="2">
         <v>0.147419536</v>
@@ -12144,13 +12144,13 @@
         <v>0.287027553</v>
       </c>
       <c r="AV24" s="2">
-        <v>0.2168195028816044</v>
+        <v>0.2162532131155808</v>
       </c>
       <c r="AW24" s="2">
-        <v>0.07020805011839557</v>
+        <v>0.0707743398844192</v>
       </c>
       <c r="AX24" s="2">
-        <v>24.46038695051536</v>
+        <v>24.65768151687486</v>
       </c>
       <c r="AY24" s="2">
         <v>0.411369804</v>
@@ -12180,25 +12180,25 @@
         <v>0.415670013</v>
       </c>
       <c r="BH24" s="2">
-        <v>0.3399547889310781</v>
+        <v>0.2108407219722542</v>
       </c>
       <c r="BI24" s="2">
-        <v>0.07571522406892189</v>
+        <v>0.2048292910277458</v>
       </c>
       <c r="BJ24" s="2">
-        <v>18.21522402409189</v>
+        <v>49.27689865079245</v>
       </c>
       <c r="BK24" s="2">
         <v>0.326273836</v>
       </c>
       <c r="BL24" s="2">
-        <v>0.09888516525342261</v>
+        <v>0.04457163601685171</v>
       </c>
       <c r="BM24" s="2">
-        <v>0.2273886707465774</v>
+        <v>0.2817021999831483</v>
       </c>
       <c r="BN24" s="2">
-        <v>69.69258507953955</v>
+        <v>86.33919392272334</v>
       </c>
       <c r="BO24" s="2">
         <v>0.144221205</v>
@@ -12240,25 +12240,25 @@
         <v>0.306244745</v>
       </c>
       <c r="CB24" s="2">
-        <v>0.2438889540230695</v>
+        <v>0.1759341819408475</v>
       </c>
       <c r="CC24" s="2">
-        <v>0.06235579097693045</v>
+        <v>0.1303105630591525</v>
       </c>
       <c r="CD24" s="2">
-        <v>20.36142399012608</v>
+        <v>42.5511180801331</v>
       </c>
       <c r="CE24" s="2">
         <v>0.09880061800000001</v>
       </c>
       <c r="CF24" s="2">
-        <v>-0.1048876237501865</v>
+        <v>-0.1051048573513306</v>
       </c>
       <c r="CG24" s="2">
-        <v>0.2036882417501865</v>
+        <v>0.2039054753513306</v>
       </c>
       <c r="CH24" s="2">
-        <v>206.1608984573218</v>
+        <v>206.3807691479527</v>
       </c>
       <c r="CI24" s="2">
         <v>0.247269136</v>
@@ -12464,25 +12464,25 @@
         <v>0.889930942</v>
       </c>
       <c r="AB25" s="2">
-        <v>0.4114301592260023</v>
+        <v>0.4128168976447339</v>
       </c>
       <c r="AC25" s="2">
-        <v>0.4785007827739977</v>
+        <v>0.4771140443552661</v>
       </c>
       <c r="AD25" s="2">
-        <v>53.76830495393627</v>
+        <v>53.61247955746055</v>
       </c>
       <c r="AE25" s="2">
         <v>1.256154901</v>
       </c>
       <c r="AF25" s="2">
-        <v>1.24482130276022</v>
+        <v>1.24577262012292</v>
       </c>
       <c r="AG25" s="2">
-        <v>0.01133359823977953</v>
+        <v>0.01038228087707971</v>
       </c>
       <c r="AH25" s="2">
-        <v>0.9022452749065484</v>
+        <v>0.8265127866646526</v>
       </c>
       <c r="AI25" s="2">
         <v>0.788893731</v>
@@ -12524,13 +12524,13 @@
         <v>1.22750081</v>
       </c>
       <c r="AV25" s="2">
-        <v>1.053410604164542</v>
+        <v>1.052053493001792</v>
       </c>
       <c r="AW25" s="2">
-        <v>0.1740902058354583</v>
+        <v>0.175447316998208</v>
       </c>
       <c r="AX25" s="2">
-        <v>14.18249213501198</v>
+        <v>14.29305101625212</v>
       </c>
       <c r="AY25" s="2">
         <v>1.605842023</v>
@@ -12560,25 +12560,25 @@
         <v>1.628688346</v>
       </c>
       <c r="BH25" s="2">
-        <v>1.419904297920434</v>
+        <v>1.110482951896534</v>
       </c>
       <c r="BI25" s="2">
-        <v>0.2087840480795662</v>
+        <v>0.5182053941034663</v>
       </c>
       <c r="BJ25" s="2">
-        <v>12.81915282271973</v>
+        <v>31.81734525062208</v>
       </c>
       <c r="BK25" s="2">
         <v>1.351008128</v>
       </c>
       <c r="BL25" s="2">
-        <v>0.7932923761541337</v>
+        <v>0.6749120246699765</v>
       </c>
       <c r="BM25" s="2">
-        <v>0.5577157518458662</v>
+        <v>0.6760961033300235</v>
       </c>
       <c r="BN25" s="2">
-        <v>41.28145051736256</v>
+        <v>50.04382204057498</v>
       </c>
       <c r="BO25" s="2">
         <v>0.701213447</v>
@@ -12620,13 +12620,13 @@
         <v>0.936146144</v>
       </c>
       <c r="CB25" s="2">
-        <v>1.040081918467076</v>
+        <v>0.8772285784586145</v>
       </c>
       <c r="CC25" s="2">
-        <v>0.1039357744670765</v>
+        <v>0.0589175655413855</v>
       </c>
       <c r="CD25" s="2">
-        <v>11.10251589810281</v>
+        <v>6.293629036342588</v>
       </c>
       <c r="CE25" s="2">
         <v>0.306851918</v>
@@ -12844,25 +12844,25 @@
         <v>7.800579194</v>
       </c>
       <c r="AB26" s="2">
-        <v>7.747721419117463</v>
+        <v>7.747492778476817</v>
       </c>
       <c r="AC26" s="2">
-        <v>0.05285777488253718</v>
+        <v>0.0530864155231825</v>
       </c>
       <c r="AD26" s="2">
-        <v>0.6776134639232172</v>
+        <v>0.6805445365392248</v>
       </c>
       <c r="AE26" s="2">
         <v>13.58691961</v>
       </c>
       <c r="AF26" s="2">
-        <v>13.34604174471157</v>
+        <v>13.34713340235344</v>
       </c>
       <c r="AG26" s="2">
-        <v>0.2408778652884287</v>
+        <v>0.23978620764656</v>
       </c>
       <c r="AH26" s="2">
-        <v>1.77286590487473</v>
+        <v>1.764831282802887</v>
       </c>
       <c r="AI26" s="2">
         <v>14.49891054</v>
@@ -12904,13 +12904,13 @@
         <v>13.71930632</v>
       </c>
       <c r="AV26" s="2">
-        <v>13.27831781392586</v>
+        <v>13.27851444484883</v>
       </c>
       <c r="AW26" s="2">
-        <v>0.4409885060741363</v>
+        <v>0.4407918751511684</v>
       </c>
       <c r="AX26" s="2">
-        <v>3.214364456833094</v>
+        <v>3.212931214376212</v>
       </c>
       <c r="AY26" s="2">
         <v>12.62069704</v>
@@ -12940,25 +12940,25 @@
         <v>15.39047359</v>
       </c>
       <c r="BH26" s="2">
-        <v>15.02171271939662</v>
+        <v>15.06654457074285</v>
       </c>
       <c r="BI26" s="2">
-        <v>0.3687608706033796</v>
+        <v>0.3239290192571485</v>
       </c>
       <c r="BJ26" s="2">
-        <v>2.396033289339341</v>
+        <v>2.104737176298604</v>
       </c>
       <c r="BK26" s="2">
         <v>10.38605814</v>
       </c>
       <c r="BL26" s="2">
-        <v>10.4896863815555</v>
+        <v>10.49887074661801</v>
       </c>
       <c r="BM26" s="2">
-        <v>0.1036282415554979</v>
+        <v>0.1128126066180126</v>
       </c>
       <c r="BN26" s="2">
-        <v>0.9977629641451043</v>
+        <v>1.086192712358653</v>
       </c>
       <c r="BO26" s="2">
         <v>8.749751343</v>
@@ -13000,25 +13000,25 @@
         <v>11.88516395</v>
       </c>
       <c r="CB26" s="2">
-        <v>11.31265821666494</v>
+        <v>11.33625392789571</v>
       </c>
       <c r="CC26" s="2">
-        <v>0.5725057333350652</v>
+        <v>0.5489100221042911</v>
       </c>
       <c r="CD26" s="2">
-        <v>4.816978005045232</v>
+        <v>4.618447203702992</v>
       </c>
       <c r="CE26" s="2">
         <v>7.3919962</v>
       </c>
       <c r="CF26" s="2">
-        <v>6.931524939561562</v>
+        <v>6.929312012270346</v>
       </c>
       <c r="CG26" s="2">
-        <v>0.460471260438438</v>
+        <v>0.4626841877296544</v>
       </c>
       <c r="CH26" s="2">
-        <v>6.229322201740823</v>
+        <v>6.259259004078686</v>
       </c>
       <c r="CI26" s="2">
         <v>13.16833288</v>
@@ -13224,25 +13224,25 @@
         <v>8.323591</v>
       </c>
       <c r="AB27" s="2">
-        <v>7.524236035709749</v>
+        <v>7.524913542019296</v>
       </c>
       <c r="AC27" s="2">
-        <v>0.7993549642902513</v>
+        <v>0.7986774579807046</v>
       </c>
       <c r="AD27" s="2">
-        <v>9.603486815849688</v>
+        <v>9.59534722430144</v>
       </c>
       <c r="AE27" s="2">
         <v>14.31166329</v>
       </c>
       <c r="AF27" s="2">
-        <v>13.22085763393114</v>
+        <v>13.2230494730885</v>
       </c>
       <c r="AG27" s="2">
-        <v>1.090805656068861</v>
+        <v>1.088613816911497</v>
       </c>
       <c r="AH27" s="2">
-        <v>7.621795132862304</v>
+        <v>7.606480077491379</v>
       </c>
       <c r="AI27" s="2">
         <v>14.90132603</v>
@@ -13284,13 +13284,13 @@
         <v>14.40735818</v>
       </c>
       <c r="AV27" s="2">
-        <v>13.10499390168842</v>
+        <v>13.10429334821164</v>
       </c>
       <c r="AW27" s="2">
-        <v>1.302364278311577</v>
+        <v>1.303064831788356</v>
       </c>
       <c r="AX27" s="2">
-        <v>9.039577291272543</v>
+        <v>9.04443976132449</v>
       </c>
       <c r="AY27" s="2">
         <v>13.55913441</v>
@@ -13320,25 +13320,25 @@
         <v>16.34127019</v>
       </c>
       <c r="BH27" s="2">
-        <v>14.97434368832707</v>
+        <v>14.81461749622401</v>
       </c>
       <c r="BI27" s="2">
-        <v>1.366926501672925</v>
+        <v>1.52665269377599</v>
       </c>
       <c r="BJ27" s="2">
-        <v>8.364873022596568</v>
+        <v>9.342313516792723</v>
       </c>
       <c r="BK27" s="2">
         <v>11.15387621</v>
       </c>
       <c r="BL27" s="2">
-        <v>10.24155504071667</v>
+        <v>10.16529017539739</v>
       </c>
       <c r="BM27" s="2">
-        <v>0.9123211692833344</v>
+        <v>0.9885860346026067</v>
       </c>
       <c r="BN27" s="2">
-        <v>8.179409131915893</v>
+        <v>8.863161254347531</v>
       </c>
       <c r="BO27" s="2">
         <v>9.12174259</v>
@@ -13380,25 +13380,25 @@
         <v>12.4105939</v>
       </c>
       <c r="CB27" s="2">
-        <v>11.25793573594163</v>
+        <v>11.17386931904258</v>
       </c>
       <c r="CC27" s="2">
-        <v>1.152658164058366</v>
+        <v>1.23672458095742</v>
       </c>
       <c r="CD27" s="2">
-        <v>9.287695442668264</v>
+        <v>9.965071703437332</v>
       </c>
       <c r="CE27" s="2">
         <v>7.543047144</v>
       </c>
       <c r="CF27" s="2">
-        <v>6.516703828985617</v>
+        <v>6.513631762355951</v>
       </c>
       <c r="CG27" s="2">
-        <v>1.026343315014383</v>
+        <v>1.029415381644049</v>
       </c>
       <c r="CH27" s="2">
-        <v>13.60648151100013</v>
+        <v>13.64720864117735</v>
       </c>
       <c r="CI27" s="2">
         <v>13.55575456</v>
@@ -13604,25 +13604,25 @@
         <v>12.84134784</v>
       </c>
       <c r="AB28" s="2">
-        <v>11.78629645540752</v>
+        <v>11.79734641902939</v>
       </c>
       <c r="AC28" s="2">
-        <v>1.055051384592483</v>
+        <v>1.044001420970611</v>
       </c>
       <c r="AD28" s="2">
-        <v>8.216048640206315</v>
+        <v>8.129998766318062</v>
       </c>
       <c r="AE28" s="2">
         <v>24.21926825</v>
       </c>
       <c r="AF28" s="2">
-        <v>23.57782685062993</v>
+        <v>23.59463081086926</v>
       </c>
       <c r="AG28" s="2">
-        <v>0.6414413993700734</v>
+        <v>0.6246374391307405</v>
       </c>
       <c r="AH28" s="2">
-        <v>2.648475555697573</v>
+        <v>2.579092946504445</v>
       </c>
       <c r="AI28" s="2">
         <v>24.21440456</v>
@@ -13664,13 +13664,13 @@
         <v>24.46022683</v>
       </c>
       <c r="AV28" s="2">
-        <v>23.01230803961921</v>
+        <v>23.00144322615988</v>
       </c>
       <c r="AW28" s="2">
-        <v>1.447918790380793</v>
+        <v>1.458783603840118</v>
       </c>
       <c r="AX28" s="2">
-        <v>5.919482269906625</v>
+        <v>5.963900555701093</v>
       </c>
       <c r="AY28" s="2">
         <v>22.13089261</v>
@@ -13700,25 +13700,25 @@
         <v>27.13472592</v>
       </c>
       <c r="BH28" s="2">
-        <v>27.89643778811954</v>
+        <v>25.41926031921236</v>
       </c>
       <c r="BI28" s="2">
-        <v>0.7617118681195372</v>
+        <v>1.715465600787642</v>
       </c>
       <c r="BJ28" s="2">
-        <v>2.807147823660557</v>
+        <v>6.322030323229599</v>
       </c>
       <c r="BK28" s="2">
         <v>16.87700748</v>
       </c>
       <c r="BL28" s="2">
-        <v>16.86282300672451</v>
+        <v>15.81679362435365</v>
       </c>
       <c r="BM28" s="2">
-        <v>0.01418447327549188</v>
+        <v>1.060213855646346</v>
       </c>
       <c r="BN28" s="2">
-        <v>0.08404613965065259</v>
+        <v>6.282001456139342</v>
       </c>
       <c r="BO28" s="2">
         <v>14.44923658</v>
@@ -13760,25 +13760,25 @@
         <v>20.49186441</v>
       </c>
       <c r="CB28" s="2">
-        <v>20.76984235450314</v>
+        <v>19.46606473928964</v>
       </c>
       <c r="CC28" s="2">
-        <v>0.2779779445031352</v>
+        <v>1.025799670710359</v>
       </c>
       <c r="CD28" s="2">
-        <v>1.356528322369156</v>
+        <v>5.005887459463037</v>
       </c>
       <c r="CE28" s="2">
         <v>11.08259006</v>
       </c>
       <c r="CF28" s="2">
-        <v>8.763456970479035</v>
+        <v>8.744050944183797</v>
       </c>
       <c r="CG28" s="2">
-        <v>2.319133089520964</v>
+        <v>2.338539115816202</v>
       </c>
       <c r="CH28" s="2">
-        <v>20.92591241727265</v>
+        <v>21.10101612669595</v>
       </c>
       <c r="CI28" s="2">
         <v>20.59646492</v>
@@ -13984,25 +13984,25 @@
         <v>11.72674227</v>
       </c>
       <c r="AB29" s="2">
-        <v>11.72541187965432</v>
+        <v>11.73653678658297</v>
       </c>
       <c r="AC29" s="2">
-        <v>0.001330390345682275</v>
+        <v>0.009794516582971369</v>
       </c>
       <c r="AD29" s="2">
-        <v>0.0113449269630983</v>
+        <v>0.08352291162762433</v>
       </c>
       <c r="AE29" s="2">
         <v>22.71962215</v>
       </c>
       <c r="AF29" s="2">
-        <v>23.45877239210899</v>
+        <v>23.47574895819909</v>
       </c>
       <c r="AG29" s="2">
-        <v>0.7391502421089946</v>
+        <v>0.7561268081990882</v>
       </c>
       <c r="AH29" s="2">
-        <v>3.253356227621042</v>
+        <v>3.328078271755449</v>
       </c>
       <c r="AI29" s="2">
         <v>23.48449997</v>
@@ -14044,13 +14044,13 @@
         <v>22.88249949</v>
       </c>
       <c r="AV29" s="2">
-        <v>22.923763877922</v>
+        <v>22.91282396698103</v>
       </c>
       <c r="AW29" s="2">
-        <v>0.04126438792199494</v>
+        <v>0.03032447698103269</v>
       </c>
       <c r="AX29" s="2">
-        <v>0.1803316457628595</v>
+        <v>0.1325225725200385</v>
       </c>
       <c r="AY29" s="2">
         <v>20.70360192</v>
@@ -14080,25 +14080,25 @@
         <v>25.29636408</v>
       </c>
       <c r="BH29" s="2">
-        <v>27.80853354158278</v>
+        <v>25.31423384686176</v>
       </c>
       <c r="BI29" s="2">
-        <v>2.512169461582783</v>
+        <v>0.01786976686175734</v>
       </c>
       <c r="BJ29" s="2">
-        <v>9.930950762876522</v>
+        <v>0.07064164164163683</v>
       </c>
       <c r="BK29" s="2">
         <v>15.72084501</v>
       </c>
       <c r="BL29" s="2">
-        <v>16.78406662013355</v>
+        <v>15.7309709015132</v>
       </c>
       <c r="BM29" s="2">
-        <v>1.063221610133548</v>
+        <v>0.01012589151319609</v>
       </c>
       <c r="BN29" s="2">
-        <v>6.763132703472582</v>
+        <v>0.06441060583419679</v>
       </c>
       <c r="BO29" s="2">
         <v>13.34298111</v>
@@ -14140,25 +14140,25 @@
         <v>19.34656322</v>
       </c>
       <c r="CB29" s="2">
-        <v>20.70207163702287</v>
+        <v>19.38928232401262</v>
       </c>
       <c r="CC29" s="2">
-        <v>1.355508417022872</v>
+        <v>0.04271910401261891</v>
       </c>
       <c r="CD29" s="2">
-        <v>7.00645588370745</v>
+        <v>0.2208097817004364</v>
       </c>
       <c r="CE29" s="2">
         <v>8.041365861999999</v>
       </c>
       <c r="CF29" s="2">
-        <v>8.044269783560958</v>
+        <v>8.023374242898608</v>
       </c>
       <c r="CG29" s="2">
-        <v>0.002903921560958977</v>
+        <v>0.01799161910139091</v>
       </c>
       <c r="CH29" s="2">
-        <v>0.03611229249848771</v>
+        <v>0.223738347566195</v>
       </c>
       <c r="CI29" s="2">
         <v>19.35261561</v>
@@ -14532,13 +14532,13 @@
         <v>3.041224194</v>
       </c>
       <c r="CF30" s="2">
-        <v>0.001448500001949182</v>
+        <v>0.001451500000107186</v>
       </c>
       <c r="CG30" s="2">
-        <v>3.039775693998051</v>
+        <v>3.039772693999893</v>
       </c>
       <c r="CH30" s="2">
-        <v>99.95237115353723</v>
+        <v>99.95227250911095</v>
       </c>
       <c r="CI30" s="2">
         <v>1.243849311</v>
@@ -14744,25 +14744,25 @@
         <v>0.303758115</v>
       </c>
       <c r="AB31" s="2">
-        <v>0.07990133633061466</v>
+        <v>0.07980298514253731</v>
       </c>
       <c r="AC31" s="2">
-        <v>0.2238567786693853</v>
+        <v>0.2239551298574627</v>
       </c>
       <c r="AD31" s="2">
-        <v>73.69573605280812</v>
+        <v>73.7281141797521</v>
       </c>
       <c r="AE31" s="2">
         <v>0.487406232</v>
       </c>
       <c r="AF31" s="2">
-        <v>0.1196706323656415</v>
+        <v>0.1194971331821411</v>
       </c>
       <c r="AG31" s="2">
-        <v>0.3677355996343585</v>
+        <v>0.3679090988178589</v>
       </c>
       <c r="AH31" s="2">
-        <v>75.44745542653598</v>
+        <v>75.48305184941889</v>
       </c>
       <c r="AI31" s="2">
         <v>0.530689349</v>
@@ -14804,13 +14804,13 @@
         <v>0.559917918</v>
       </c>
       <c r="AV31" s="2">
-        <v>0.1162001501424541</v>
+        <v>0.1162987036605442</v>
       </c>
       <c r="AW31" s="2">
-        <v>0.4437177678575459</v>
+        <v>0.4436192143394558</v>
       </c>
       <c r="AX31" s="2">
-        <v>79.24693130780392</v>
+        <v>79.22932988535933</v>
       </c>
       <c r="AY31" s="2">
         <v>0.570244797</v>
@@ -14840,25 +14840,25 @@
         <v>0.770065103</v>
       </c>
       <c r="BH31" s="2">
-        <v>0.1153603631220795</v>
+        <v>0.1378305652472686</v>
       </c>
       <c r="BI31" s="2">
-        <v>0.6547047398779205</v>
+        <v>0.6322345377527314</v>
       </c>
       <c r="BJ31" s="2">
-        <v>85.01940125936606</v>
+        <v>82.10143990289758</v>
       </c>
       <c r="BK31" s="2">
         <v>0.570021808</v>
       </c>
       <c r="BL31" s="2">
-        <v>0.1033552497548259</v>
+        <v>0.1126286938465608</v>
       </c>
       <c r="BM31" s="2">
-        <v>0.4666665582451741</v>
+        <v>0.4573931141534393</v>
       </c>
       <c r="BN31" s="2">
-        <v>81.86819375955771</v>
+        <v>80.24133598647147</v>
       </c>
       <c r="BO31" s="2">
         <v>0.410049698</v>
@@ -14900,25 +14900,25 @@
         <v>0.428345233</v>
       </c>
       <c r="CB31" s="2">
-        <v>0.08893830372914024</v>
+        <v>0.1007647259002894</v>
       </c>
       <c r="CC31" s="2">
-        <v>0.3394069292708597</v>
+        <v>0.3275805070997105</v>
       </c>
       <c r="CD31" s="2">
-        <v>79.23677051189682</v>
+        <v>76.47581480140121</v>
       </c>
       <c r="CE31" s="2">
         <v>2.376191152</v>
       </c>
       <c r="CF31" s="2">
-        <v>0.7407835821923807</v>
+        <v>0.7423178250274411</v>
       </c>
       <c r="CG31" s="2">
-        <v>1.635407569807619</v>
+        <v>1.633873326972559</v>
       </c>
       <c r="CH31" s="2">
-        <v>68.82474789248855</v>
+        <v>68.76018057711204</v>
       </c>
       <c r="CI31" s="2">
         <v>0.543098568</v>
@@ -15124,25 +15124,25 @@
         <v>1.106345819</v>
       </c>
       <c r="AB32" s="2">
-        <v>0.9029347152072411</v>
+        <v>0.9018232857118208</v>
       </c>
       <c r="AC32" s="2">
-        <v>0.2034111037927588</v>
+        <v>0.2045225332881792</v>
       </c>
       <c r="AD32" s="2">
-        <v>18.38585190086562</v>
+        <v>18.48631140243674</v>
       </c>
       <c r="AE32" s="2">
         <v>1.4708495</v>
       </c>
       <c r="AF32" s="2">
-        <v>2.127255543491184</v>
+        <v>2.118659302796173</v>
       </c>
       <c r="AG32" s="2">
-        <v>0.6564060434911836</v>
+        <v>0.6478098027961732</v>
       </c>
       <c r="AH32" s="2">
-        <v>44.62768240334471</v>
+        <v>44.04324186778955</v>
       </c>
       <c r="AI32" s="2">
         <v>1.550506711</v>
@@ -15184,13 +15184,13 @@
         <v>1.3733957</v>
       </c>
       <c r="AV32" s="2">
-        <v>1.313130823576932</v>
+        <v>1.314244536966505</v>
       </c>
       <c r="AW32" s="2">
-        <v>0.06026487642306777</v>
+        <v>0.05915116303349555</v>
       </c>
       <c r="AX32" s="2">
-        <v>4.388019885533919</v>
+        <v>4.30692793296903</v>
       </c>
       <c r="AY32" s="2">
         <v>1.791208947</v>
@@ -15220,25 +15220,25 @@
         <v>1.548743271</v>
       </c>
       <c r="BH32" s="2">
-        <v>1.303640730677455</v>
+        <v>1.557567382119789</v>
       </c>
       <c r="BI32" s="2">
-        <v>0.2451025403225453</v>
+        <v>0.008824111119788869</v>
       </c>
       <c r="BJ32" s="2">
-        <v>15.82589864389121</v>
+        <v>0.569759448516685</v>
       </c>
       <c r="BK32" s="2">
         <v>2.172602845</v>
       </c>
       <c r="BL32" s="2">
-        <v>1.304820294605971</v>
+        <v>1.421893961212098</v>
       </c>
       <c r="BM32" s="2">
-        <v>0.8677825503940291</v>
+        <v>0.7507088837879023</v>
       </c>
       <c r="BN32" s="2">
-        <v>39.94207005625223</v>
+        <v>34.55343370812452</v>
       </c>
       <c r="BO32" s="2">
         <v>1.286958042</v>
@@ -15280,25 +15280,25 @@
         <v>1.412618456</v>
       </c>
       <c r="CB32" s="2">
-        <v>1.005055741151861</v>
+        <v>1.13870134718033</v>
       </c>
       <c r="CC32" s="2">
-        <v>0.4075627148481391</v>
+        <v>0.2739171088196704</v>
       </c>
       <c r="CD32" s="2">
-        <v>28.8515779414494</v>
+        <v>19.39073552778716</v>
       </c>
       <c r="CE32" s="2">
         <v>0.322183273</v>
       </c>
       <c r="CF32" s="2">
-        <v>0.4348330540859676</v>
+        <v>0.4357336403215645</v>
       </c>
       <c r="CG32" s="2">
-        <v>0.1126497810859676</v>
+        <v>0.1135503673215645</v>
       </c>
       <c r="CH32" s="2">
-        <v>34.96450328939565</v>
+        <v>35.24402935765214</v>
       </c>
       <c r="CI32" s="2">
         <v>2.050018089</v>
@@ -15884,25 +15884,25 @@
         <v>0.2097</v>
       </c>
       <c r="AB34" s="2">
-        <v>0.3318806383493366</v>
+        <v>0.3314721238415635</v>
       </c>
       <c r="AC34" s="2">
-        <v>0.1221806383493366</v>
+        <v>0.1217721238415635</v>
       </c>
       <c r="AD34" s="2">
-        <v>58.26449134446191</v>
+        <v>58.06968232787959</v>
       </c>
       <c r="AE34" s="2">
         <v>0.338</v>
       </c>
       <c r="AF34" s="2">
-        <v>0.4970676046873637</v>
+        <v>0.4963469531636525</v>
       </c>
       <c r="AG34" s="2">
-        <v>0.1590676046873636</v>
+        <v>0.1583469531636525</v>
       </c>
       <c r="AH34" s="2">
-        <v>47.06142150513717</v>
+        <v>46.84821099516346</v>
       </c>
       <c r="AI34" s="2">
         <v>0.3745</v>
@@ -15944,13 +15944,13 @@
         <v>0.386</v>
       </c>
       <c r="AV34" s="2">
-        <v>0.4826525034073846</v>
+        <v>0.4830618583192976</v>
       </c>
       <c r="AW34" s="2">
-        <v>0.09665250340738463</v>
+        <v>0.09706185831929759</v>
       </c>
       <c r="AX34" s="2">
-        <v>25.03950865476286</v>
+        <v>25.14555915007709</v>
       </c>
       <c r="AY34" s="2">
         <v>0.372</v>
@@ -15980,25 +15980,25 @@
         <v>0.423</v>
       </c>
       <c r="BH34" s="2">
-        <v>0.479164338312796</v>
+        <v>0.5724972582315483</v>
       </c>
       <c r="BI34" s="2">
-        <v>0.05616433831279605</v>
+        <v>0.1494972582315483</v>
       </c>
       <c r="BJ34" s="2">
-        <v>13.2776213505428</v>
+        <v>35.34214142589794</v>
       </c>
       <c r="BK34" s="2">
         <v>0.411</v>
       </c>
       <c r="BL34" s="2">
-        <v>0.4292995316555679</v>
+        <v>0.4678179931256874</v>
       </c>
       <c r="BM34" s="2">
-        <v>0.01829953165556791</v>
+        <v>0.05681799312568747</v>
       </c>
       <c r="BN34" s="2">
-        <v>4.452440792108982</v>
+        <v>13.82432922766119</v>
       </c>
       <c r="BO34" s="2">
         <v>0.29</v>
@@ -16040,25 +16040,25 @@
         <v>0.4</v>
       </c>
       <c r="CB34" s="2">
-        <v>0.3694168629821116</v>
+        <v>0.4185394524130219</v>
       </c>
       <c r="CC34" s="2">
-        <v>0.03058313701788845</v>
+        <v>0.01853945241302185</v>
       </c>
       <c r="CD34" s="2">
-        <v>7.645784254472113</v>
+        <v>4.634863103255463</v>
       </c>
       <c r="CE34" s="2">
         <v>0.17</v>
       </c>
       <c r="CF34" s="2">
-        <v>0.3769004410873181</v>
+        <v>0.3776810426221926</v>
       </c>
       <c r="CG34" s="2">
-        <v>0.2069004410873181</v>
+        <v>0.2076810426221926</v>
       </c>
       <c r="CH34" s="2">
-        <v>121.7061418160694</v>
+        <v>122.1653191895251</v>
       </c>
       <c r="CI34" s="2">
         <v>0.37</v>
@@ -16773,7 +16773,7 @@
         <v>1.112619062</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>1.112619062</v>
@@ -16993,7 +16993,7 @@
         <v>0.254995953</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.254995953</v>
@@ -17449,7 +17449,7 @@
         <v>0.138518121</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.138518121</v>
@@ -17669,7 +17669,7 @@
         <v>0.334250249</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.334250249</v>
@@ -18122,7 +18122,7 @@
         <v>0.009015943</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.009015943</v>
@@ -18342,7 +18342,7 @@
         <v>0.538953027</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.538953027</v>
@@ -18658,13 +18658,13 @@
         <v>-27.14446029</v>
       </c>
       <c r="D5" s="2">
-        <v>-25.63466382622477</v>
+        <v>-25.62602312683188</v>
       </c>
       <c r="E5" s="2">
-        <v>1.509796463775235</v>
+        <v>1.518437163168119</v>
       </c>
       <c r="F5" s="2">
-        <v>5.562079509576555</v>
+        <v>5.593911785114809</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -18678,13 +18678,13 @@
         <v>24.46044733</v>
       </c>
       <c r="D6" s="2">
-        <v>0.832435116499247</v>
+        <v>0.8331411346000178</v>
       </c>
       <c r="E6" s="2">
-        <v>23.62801221350075</v>
+        <v>23.62730619539998</v>
       </c>
       <c r="F6" s="2">
-        <v>96.59681155757814</v>
+        <v>96.59392519130998</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -18718,13 +18718,13 @@
         <v>0.517056726</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3636342572871508</v>
+        <v>0.3639426685526253</v>
       </c>
       <c r="E8" s="2">
-        <v>0.1534224687128491</v>
+        <v>0.1531140574473747</v>
       </c>
       <c r="F8" s="2">
-        <v>29.67227017811759</v>
+        <v>29.6126227061931</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -18738,13 +18738,13 @@
         <v>0.06310534800000001</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4917263704714435</v>
+        <v>0.4921434212557008</v>
       </c>
       <c r="E9" s="2">
-        <v>0.4286210224714435</v>
+        <v>0.4290380732557008</v>
       </c>
       <c r="F9" s="2">
-        <v>679.2150523778801</v>
+        <v>679.87593263205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -18758,13 +18758,13 @@
         <v>-0.517056726</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.4917263704714435</v>
+        <v>-0.4921434212557008</v>
       </c>
       <c r="E10" s="2">
-        <v>0.02533035552855645</v>
+        <v>0.0249133047442992</v>
       </c>
       <c r="F10" s="2">
-        <v>4.898950976716711</v>
+        <v>4.818292363592462</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -18798,7 +18798,7 @@
         <v>0.125192869</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.125192869</v>
@@ -18818,13 +18818,13 @@
         <v>27.12512156</v>
       </c>
       <c r="D13" s="2">
-        <v>25.88979393952591</v>
+        <v>25.88136962513946</v>
       </c>
       <c r="E13" s="2">
-        <v>1.235327620474092</v>
+        <v>1.243751934860537</v>
       </c>
       <c r="F13" s="2">
-        <v>4.554182799666286</v>
+        <v>4.585240040710575</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -18838,13 +18838,13 @@
         <v>-14.40735818</v>
       </c>
       <c r="D14" s="2">
-        <v>-13.44494196790206</v>
+        <v>-13.44377955441325</v>
       </c>
       <c r="E14" s="2">
-        <v>0.9624162120979403</v>
+        <v>0.9635786255867469</v>
       </c>
       <c r="F14" s="2">
-        <v>6.680032522783717</v>
+        <v>6.688100715954762</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -18858,13 +18858,13 @@
         <v>27.12512156</v>
       </c>
       <c r="D15" s="2">
-        <v>27.12484726310103</v>
+        <v>27.12197153478612</v>
       </c>
       <c r="E15" s="2">
-        <v>0.000274296898968629</v>
+        <v>0.003150025213884078</v>
       </c>
       <c r="F15" s="2">
-        <v>0.001011228275463732</v>
+        <v>0.01161294413710299</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -18878,13 +18878,13 @@
         <v>14.40735818</v>
       </c>
       <c r="D16" s="2">
-        <v>13.10499390168842</v>
+        <v>13.10429334821164</v>
       </c>
       <c r="E16" s="2">
-        <v>1.302364278311577</v>
+        <v>1.303064831788356</v>
       </c>
       <c r="F16" s="2">
-        <v>9.039577291272543</v>
+        <v>9.04443976132449</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -18898,13 +18898,13 @@
         <v>-0.212726094</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1812794537547899</v>
+        <v>-0.1814332033661801</v>
       </c>
       <c r="E17" s="2">
-        <v>0.03144664024521013</v>
+        <v>0.03129289063381988</v>
       </c>
       <c r="F17" s="2">
-        <v>14.78269057354577</v>
+        <v>14.71041471471754</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -18918,13 +18918,13 @@
         <v>0.517056726</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3636342572871508</v>
+        <v>0.3639426685526253</v>
       </c>
       <c r="E18" s="2">
-        <v>0.1534224687128491</v>
+        <v>0.1531140574473747</v>
       </c>
       <c r="F18" s="2">
-        <v>29.67227017811759</v>
+        <v>29.6126227061931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -18938,13 +18938,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="D19" s="2">
-        <v>-27.12484726310103</v>
+        <v>-27.12197153478612</v>
       </c>
       <c r="E19" s="2">
-        <v>0.000274296898968629</v>
+        <v>0.003150025213884078</v>
       </c>
       <c r="F19" s="2">
-        <v>0.001011228275463732</v>
+        <v>0.01161294413710299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -18958,13 +18958,13 @@
         <v>-27.12512156</v>
       </c>
       <c r="D20" s="2">
-        <v>-25.88979393952591</v>
+        <v>-25.88136962513946</v>
       </c>
       <c r="E20" s="2">
-        <v>1.235327620474092</v>
+        <v>1.243751934860537</v>
       </c>
       <c r="F20" s="2">
-        <v>4.554182799666286</v>
+        <v>4.585240040710575</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -18978,13 +18978,13 @@
         <v>1.22750081</v>
       </c>
       <c r="D21" s="2">
-        <v>1.053410604164542</v>
+        <v>1.052053493001792</v>
       </c>
       <c r="E21" s="2">
-        <v>0.1740902058354583</v>
+        <v>0.175447316998208</v>
       </c>
       <c r="F21" s="2">
-        <v>14.18249213501198</v>
+        <v>14.29305101625212</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -18998,13 +18998,13 @@
         <v>-0.401024311</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.3443845595321762</v>
+        <v>-0.3439264622693711</v>
       </c>
       <c r="E22" s="2">
-        <v>0.05663975146782385</v>
+        <v>0.0570978487306289</v>
       </c>
       <c r="F22" s="2">
-        <v>14.1237700344366</v>
+        <v>14.2380018279313</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -19018,7 +19018,7 @@
         <v>0.401024311</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.401024311</v>
@@ -19038,13 +19038,13 @@
         <v>0.287027553</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2168195028816044</v>
+        <v>0.2162532131155808</v>
       </c>
       <c r="E24" s="2">
-        <v>0.07020805011839557</v>
+        <v>0.0707743398844192</v>
       </c>
       <c r="F24" s="2">
-        <v>24.46038695051536</v>
+        <v>24.65768151687486</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -19058,13 +19058,13 @@
         <v>1.22750081</v>
       </c>
       <c r="D25" s="2">
-        <v>1.053410604164542</v>
+        <v>1.052053493001792</v>
       </c>
       <c r="E25" s="2">
-        <v>0.1740902058354583</v>
+        <v>0.175447316998208</v>
       </c>
       <c r="F25" s="2">
-        <v>14.18249213501198</v>
+        <v>14.29305101625212</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -19078,13 +19078,13 @@
         <v>13.71930632</v>
       </c>
       <c r="D26" s="2">
-        <v>13.27831781392586</v>
+        <v>13.27851444484883</v>
       </c>
       <c r="E26" s="2">
-        <v>0.4409885060741363</v>
+        <v>0.4407918751511684</v>
       </c>
       <c r="F26" s="2">
-        <v>3.214364456833094</v>
+        <v>3.212931214376212</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -19098,13 +19098,13 @@
         <v>14.40735818</v>
       </c>
       <c r="D27" s="2">
-        <v>13.10499390168842</v>
+        <v>13.10429334821164</v>
       </c>
       <c r="E27" s="2">
-        <v>1.302364278311577</v>
+        <v>1.303064831788356</v>
       </c>
       <c r="F27" s="2">
-        <v>9.039577291272543</v>
+        <v>9.04443976132449</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -19118,13 +19118,13 @@
         <v>24.46022683</v>
       </c>
       <c r="D28" s="2">
-        <v>23.01230803961921</v>
+        <v>23.00144322615988</v>
       </c>
       <c r="E28" s="2">
-        <v>1.447918790380793</v>
+        <v>1.458783603840118</v>
       </c>
       <c r="F28" s="2">
-        <v>5.919482269906625</v>
+        <v>5.963900555701093</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -19138,13 +19138,13 @@
         <v>22.88249949</v>
       </c>
       <c r="D29" s="2">
-        <v>22.923763877922</v>
+        <v>22.91282396698103</v>
       </c>
       <c r="E29" s="2">
-        <v>0.04126438792199494</v>
+        <v>0.03032447698103269</v>
       </c>
       <c r="F29" s="2">
-        <v>0.1803316457628595</v>
+        <v>0.1325225725200385</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -19178,13 +19178,13 @@
         <v>0.559917918</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1162001501424541</v>
+        <v>0.1162987036605442</v>
       </c>
       <c r="E31" s="2">
-        <v>0.4437177678575459</v>
+        <v>0.4436192143394558</v>
       </c>
       <c r="F31" s="2">
-        <v>79.24693130780392</v>
+        <v>79.22932988535933</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -19198,13 +19198,13 @@
         <v>1.3733957</v>
       </c>
       <c r="D32" s="2">
-        <v>1.313130823576932</v>
+        <v>1.314244536966505</v>
       </c>
       <c r="E32" s="2">
-        <v>0.06026487642306777</v>
+        <v>0.05915116303349555</v>
       </c>
       <c r="F32" s="2">
-        <v>4.388019885533919</v>
+        <v>4.30692793296903</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -19238,13 +19238,13 @@
         <v>0.386</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4826525034073846</v>
+        <v>0.4830618583192976</v>
       </c>
       <c r="E34" s="2">
-        <v>0.09665250340738463</v>
+        <v>0.09706185831929759</v>
       </c>
       <c r="F34" s="2">
-        <v>25.03950865476286</v>
+        <v>25.14555915007709</v>
       </c>
     </row>
   </sheetData>
@@ -19471,7 +19471,7 @@
         <v>0.047136123</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.047136123</v>
@@ -19691,7 +19691,7 @@
         <v>0.527067562</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.527067562</v>
@@ -20147,7 +20147,7 @@
         <v>0.033061682</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.033061682</v>
@@ -20367,7 +20367,7 @@
         <v>0.27351028</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.27351028</v>
@@ -20683,13 +20683,13 @@
         <v>-31.06065037</v>
       </c>
       <c r="D5" s="2">
-        <v>-30.49984161683437</v>
+        <v>-28.5297621550894</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5608087531656274</v>
+        <v>2.530888214910604</v>
       </c>
       <c r="F5" s="2">
-        <v>1.805528044278448</v>
+        <v>8.14821384859046</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -20703,13 +20703,13 @@
         <v>27.13509385</v>
       </c>
       <c r="D6" s="2">
-        <v>0.8264190467671239</v>
+        <v>0.9873911737472754</v>
       </c>
       <c r="E6" s="2">
-        <v>26.30867480323288</v>
+        <v>26.14770267625272</v>
       </c>
       <c r="F6" s="2">
-        <v>96.95442716603272</v>
+        <v>96.36120228953151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -20740,13 +20740,13 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="D8" s="2">
-        <v>0.361006245799567</v>
+        <v>0.4313240143297171</v>
       </c>
       <c r="E8" s="2">
-        <v>0.419831816200433</v>
+        <v>0.3495140476702829</v>
       </c>
       <c r="F8" s="2">
-        <v>53.76682267832802</v>
+        <v>44.76139992139407</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -20760,13 +20760,13 @@
         <v>0.002913575</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4881726278730764</v>
+        <v>0.5832602066863013</v>
       </c>
       <c r="E9" s="2">
-        <v>0.4852590528730764</v>
+        <v>0.5803466316863013</v>
       </c>
       <c r="F9" s="2">
-        <v>16655.10765547743</v>
+        <v>19918.71263606742</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -20780,13 +20780,13 @@
         <v>-0.7808380620000001</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.4881726278730764</v>
+        <v>-0.5832602066863013</v>
       </c>
       <c r="E10" s="2">
-        <v>0.2926654341269237</v>
+        <v>0.1975778553136988</v>
       </c>
       <c r="F10" s="2">
-        <v>37.48093854150819</v>
+        <v>25.30330742428623</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -20820,7 +20820,7 @@
         <v>0.002913575</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.002913575</v>
@@ -20840,13 +20840,13 @@
         <v>30.42160629</v>
       </c>
       <c r="D13" s="2">
-        <v>30.75312788606652</v>
+        <v>28.83238420579059</v>
       </c>
       <c r="E13" s="2">
-        <v>0.3315215960665192</v>
+        <v>1.589222084209407</v>
       </c>
       <c r="F13" s="2">
-        <v>1.089757039474589</v>
+        <v>5.223991360153149</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -20860,13 +20860,13 @@
         <v>-16.34127019</v>
       </c>
       <c r="D14" s="2">
-        <v>-15.43653718141877</v>
+        <v>-15.17150690626881</v>
       </c>
       <c r="E14" s="2">
-        <v>0.9047330085812249</v>
+        <v>1.169763283731189</v>
       </c>
       <c r="F14" s="2">
-        <v>5.53649133795532</v>
+        <v>7.158337571867719</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -20880,13 +20880,13 @@
         <v>30.42160629</v>
       </c>
       <c r="D15" s="2">
-        <v>31.23104184943216</v>
+        <v>30.5753757939217</v>
       </c>
       <c r="E15" s="2">
-        <v>0.8094355594321634</v>
+        <v>0.1537695039217049</v>
       </c>
       <c r="F15" s="2">
-        <v>2.66072590551616</v>
+        <v>0.5054614883115195</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -20900,13 +20900,13 @@
         <v>16.34127019</v>
       </c>
       <c r="D16" s="2">
-        <v>14.97434368832707</v>
+        <v>14.81461749622401</v>
       </c>
       <c r="E16" s="2">
-        <v>1.366926501672925</v>
+        <v>1.52665269377599</v>
       </c>
       <c r="F16" s="2">
-        <v>8.364873022596568</v>
+        <v>9.342313516792723</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -20920,13 +20920,13 @@
         <v>-0.202979048</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.179969333826894</v>
+        <v>-0.2150242452191843</v>
       </c>
       <c r="E17" s="2">
-        <v>0.02300971417310599</v>
+        <v>0.01204519721918429</v>
       </c>
       <c r="F17" s="2">
-        <v>11.33600457772666</v>
+        <v>5.934207169591361</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -20940,13 +20940,13 @@
         <v>0.7808380620000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.361006245799567</v>
+        <v>0.4313240143297171</v>
       </c>
       <c r="E18" s="2">
-        <v>0.419831816200433</v>
+        <v>0.3495140476702829</v>
       </c>
       <c r="F18" s="2">
-        <v>53.76682267832802</v>
+        <v>44.76139992139407</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -20960,13 +20960,13 @@
         <v>-30.42160629</v>
       </c>
       <c r="D19" s="2">
-        <v>-31.23104184943216</v>
+        <v>-30.5753757939217</v>
       </c>
       <c r="E19" s="2">
-        <v>0.8094355594321634</v>
+        <v>0.1537695039217049</v>
       </c>
       <c r="F19" s="2">
-        <v>2.66072590551616</v>
+        <v>0.5054614883115195</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -20980,13 +20980,13 @@
         <v>-30.42160629</v>
       </c>
       <c r="D20" s="2">
-        <v>-30.75312788606652</v>
+        <v>-28.83238420579059</v>
       </c>
       <c r="E20" s="2">
-        <v>0.3315215960665192</v>
+        <v>1.589222084209407</v>
       </c>
       <c r="F20" s="2">
-        <v>1.089757039474589</v>
+        <v>5.223991360153149</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21000,13 +21000,13 @@
         <v>1.628688346</v>
       </c>
       <c r="D21" s="2">
-        <v>1.419904297920434</v>
+        <v>1.110482951896534</v>
       </c>
       <c r="E21" s="2">
-        <v>0.2087840480795662</v>
+        <v>0.5182053941034663</v>
       </c>
       <c r="F21" s="2">
-        <v>12.81915282271973</v>
+        <v>31.81734525062208</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21020,13 +21020,13 @@
         <v>-0.534155391</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.4665979235471501</v>
+        <v>-0.3621517473228524</v>
       </c>
       <c r="E22" s="2">
-        <v>0.06755746745284991</v>
+        <v>0.1720036436771476</v>
       </c>
       <c r="F22" s="2">
-        <v>12.64753077309107</v>
+        <v>32.20104983966128</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21040,7 +21040,7 @@
         <v>0.534155391</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.534155391</v>
@@ -21060,13 +21060,13 @@
         <v>0.415670013</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3399547889310781</v>
+        <v>0.2108407219722542</v>
       </c>
       <c r="E24" s="2">
-        <v>0.07571522406892189</v>
+        <v>0.2048292910277458</v>
       </c>
       <c r="F24" s="2">
-        <v>18.21522402409189</v>
+        <v>49.27689865079245</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21080,13 +21080,13 @@
         <v>1.628688346</v>
       </c>
       <c r="D25" s="2">
-        <v>1.419904297920434</v>
+        <v>1.110482951896534</v>
       </c>
       <c r="E25" s="2">
-        <v>0.2087840480795662</v>
+        <v>0.5182053941034663</v>
       </c>
       <c r="F25" s="2">
-        <v>12.81915282271973</v>
+        <v>31.81734525062208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21100,13 +21100,13 @@
         <v>15.39047359</v>
       </c>
       <c r="D26" s="2">
-        <v>15.02171271939662</v>
+        <v>15.06654457074285</v>
       </c>
       <c r="E26" s="2">
-        <v>0.3687608706033796</v>
+        <v>0.3239290192571485</v>
       </c>
       <c r="F26" s="2">
-        <v>2.396033289339341</v>
+        <v>2.104737176298604</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21120,13 +21120,13 @@
         <v>16.34127019</v>
       </c>
       <c r="D27" s="2">
-        <v>14.97434368832707</v>
+        <v>14.81461749622401</v>
       </c>
       <c r="E27" s="2">
-        <v>1.366926501672925</v>
+        <v>1.52665269377599</v>
       </c>
       <c r="F27" s="2">
-        <v>8.364873022596568</v>
+        <v>9.342313516792723</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21140,13 +21140,13 @@
         <v>27.13472592</v>
       </c>
       <c r="D28" s="2">
-        <v>27.89643778811954</v>
+        <v>25.41926031921236</v>
       </c>
       <c r="E28" s="2">
-        <v>0.7617118681195372</v>
+        <v>1.715465600787642</v>
       </c>
       <c r="F28" s="2">
-        <v>2.807147823660557</v>
+        <v>6.322030323229599</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21160,13 +21160,13 @@
         <v>25.29636408</v>
       </c>
       <c r="D29" s="2">
-        <v>27.80853354158278</v>
+        <v>25.31423384686176</v>
       </c>
       <c r="E29" s="2">
-        <v>2.512169461582783</v>
+        <v>0.01786976686175734</v>
       </c>
       <c r="F29" s="2">
-        <v>9.930950762876522</v>
+        <v>0.07064164164163683</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21200,13 +21200,13 @@
         <v>0.770065103</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1153603631220795</v>
+        <v>0.1378305652472686</v>
       </c>
       <c r="E31" s="2">
-        <v>0.6547047398779205</v>
+        <v>0.6322345377527314</v>
       </c>
       <c r="F31" s="2">
-        <v>85.01940125936606</v>
+        <v>82.10143990289758</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -21220,13 +21220,13 @@
         <v>1.548743271</v>
       </c>
       <c r="D32" s="2">
-        <v>1.303640730677455</v>
+        <v>1.557567382119789</v>
       </c>
       <c r="E32" s="2">
-        <v>0.2451025403225453</v>
+        <v>0.008824111119788869</v>
       </c>
       <c r="F32" s="2">
-        <v>15.82589864389121</v>
+        <v>0.569759448516685</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -21260,13 +21260,13 @@
         <v>0.423</v>
       </c>
       <c r="D34" s="2">
-        <v>0.479164338312796</v>
+        <v>0.5724972582315483</v>
       </c>
       <c r="E34" s="2">
-        <v>0.05616433831279605</v>
+        <v>0.1494972582315483</v>
       </c>
       <c r="F34" s="2">
-        <v>13.2776213505428</v>
+        <v>35.34214142589794</v>
       </c>
     </row>
   </sheetData>
@@ -21356,13 +21356,13 @@
         <v>-20.82975148</v>
       </c>
       <c r="D5" s="2">
-        <v>-19.19618513399491</v>
+        <v>-18.35951428236652</v>
       </c>
       <c r="E5" s="2">
-        <v>1.63356634600509</v>
+        <v>2.47023719763348</v>
       </c>
       <c r="F5" s="2">
-        <v>7.842466807986562</v>
+        <v>11.8591774846921</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -21376,13 +21376,13 @@
         <v>16.87636761</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7404202003383958</v>
+        <v>0.8068536456497564</v>
       </c>
       <c r="E6" s="2">
-        <v>16.1359474096616</v>
+        <v>16.06951396435024</v>
       </c>
       <c r="F6" s="2">
-        <v>95.61268030272306</v>
+        <v>95.21903252941907</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -21413,13 +21413,13 @@
         <v>1.239645202</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3925514917458513</v>
+        <v>0.4277727729141286</v>
       </c>
       <c r="E8" s="2">
-        <v>0.8470937102541487</v>
+        <v>0.8118724290858713</v>
       </c>
       <c r="F8" s="2">
-        <v>68.33356099692699</v>
+        <v>65.49232213991752</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -21433,13 +21433,13 @@
         <v>0.469873398</v>
       </c>
       <c r="D9" s="2">
-        <v>0.4373737972469456</v>
+        <v>0.4766167139403954</v>
       </c>
       <c r="E9" s="2">
-        <v>0.03249960075305441</v>
+        <v>0.0067433159403954</v>
       </c>
       <c r="F9" s="2">
-        <v>6.916671786780832</v>
+        <v>1.435134648843304</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -21453,13 +21453,13 @@
         <v>-1.239645202</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.4373737972469456</v>
+        <v>-0.4766167139403954</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8022714047530544</v>
+        <v>0.7630284880596045</v>
       </c>
       <c r="F10" s="2">
-        <v>64.71782437899957</v>
+        <v>61.55216725144914</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -21493,7 +21493,7 @@
         <v>0.469873398</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.469873398</v>
@@ -21513,13 +21513,13 @@
         <v>20.73011097</v>
       </c>
       <c r="D13" s="2">
-        <v>19.56134044682863</v>
+        <v>18.75743278223134</v>
       </c>
       <c r="E13" s="2">
-        <v>1.168770523171371</v>
+        <v>1.972678187768658</v>
       </c>
       <c r="F13" s="2">
-        <v>5.638033124196882</v>
+        <v>9.516003993531241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -21533,13 +21533,13 @@
         <v>-11.15387621</v>
       </c>
       <c r="D14" s="2">
-        <v>-10.5190717842243</v>
+        <v>-10.40452092535618</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6348044257756982</v>
+        <v>0.7493552846438192</v>
       </c>
       <c r="F14" s="2">
-        <v>5.691334687815208</v>
+        <v>6.718339620552586</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -21553,13 +21553,13 @@
         <v>20.73011097</v>
       </c>
       <c r="D15" s="2">
-        <v>21.15316691856369</v>
+        <v>20.87119965372446</v>
       </c>
       <c r="E15" s="2">
-        <v>0.4230559485636931</v>
+        <v>0.1410886837244583</v>
       </c>
       <c r="F15" s="2">
-        <v>2.040779951327454</v>
+        <v>0.6805978218285355</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -21573,13 +21573,13 @@
         <v>11.15387621</v>
       </c>
       <c r="D16" s="2">
-        <v>10.24155504071667</v>
+        <v>10.16529017539739</v>
       </c>
       <c r="E16" s="2">
-        <v>0.9123211692833344</v>
+        <v>0.9885860346026067</v>
       </c>
       <c r="F16" s="2">
-        <v>8.179409131915893</v>
+        <v>8.863161254347531</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -21593,13 +21593,13 @@
         <v>-0.204165364</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1612406110945058</v>
+        <v>-0.1757077600380716</v>
       </c>
       <c r="E17" s="2">
-        <v>0.04292475290549422</v>
+        <v>0.0284576039619284</v>
       </c>
       <c r="F17" s="2">
-        <v>21.02450291494801</v>
+        <v>13.9385072004321</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -21613,13 +21613,13 @@
         <v>1.239645202</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3925514917458513</v>
+        <v>0.4277727729141286</v>
       </c>
       <c r="E18" s="2">
-        <v>0.8470937102541487</v>
+        <v>0.8118724290858713</v>
       </c>
       <c r="F18" s="2">
-        <v>68.33356099692699</v>
+        <v>65.49232213991752</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -21633,13 +21633,13 @@
         <v>-20.73011097</v>
       </c>
       <c r="D19" s="2">
-        <v>-21.15316691856369</v>
+        <v>-20.87119965372446</v>
       </c>
       <c r="E19" s="2">
-        <v>0.4230559485636931</v>
+        <v>0.1410886837244583</v>
       </c>
       <c r="F19" s="2">
-        <v>2.040779951327454</v>
+        <v>0.6805978218285355</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -21653,13 +21653,13 @@
         <v>-20.73011097</v>
       </c>
       <c r="D20" s="2">
-        <v>-19.56134044682863</v>
+        <v>-18.75743278223134</v>
       </c>
       <c r="E20" s="2">
-        <v>1.168770523171371</v>
+        <v>1.972678187768658</v>
       </c>
       <c r="F20" s="2">
-        <v>5.638033124196882</v>
+        <v>9.516003993531241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -21673,13 +21673,13 @@
         <v>1.351008128</v>
       </c>
       <c r="D21" s="2">
-        <v>0.7932923761541337</v>
+        <v>0.6749120246699765</v>
       </c>
       <c r="E21" s="2">
-        <v>0.5577157518458662</v>
+        <v>0.6760961033300235</v>
       </c>
       <c r="F21" s="2">
-        <v>41.28145051736256</v>
+        <v>50.04382204057498</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -21693,13 +21693,13 @@
         <v>-0.441544233</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.2814628216702824</v>
+        <v>-0.2435308859492616</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1600814113297176</v>
+        <v>0.1980133470507384</v>
       </c>
       <c r="F22" s="2">
-        <v>36.25489800694953</v>
+        <v>44.84564223732901</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -21713,7 +21713,7 @@
         <v>0.441544233</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.441544233</v>
@@ -21733,13 +21733,13 @@
         <v>0.326273836</v>
       </c>
       <c r="D24" s="2">
-        <v>0.09888516525342261</v>
+        <v>0.04457163601685171</v>
       </c>
       <c r="E24" s="2">
-        <v>0.2273886707465774</v>
+        <v>0.2817021999831483</v>
       </c>
       <c r="F24" s="2">
-        <v>69.69258507953955</v>
+        <v>86.33919392272334</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -21753,13 +21753,13 @@
         <v>1.351008128</v>
       </c>
       <c r="D25" s="2">
-        <v>0.7932923761541337</v>
+        <v>0.6749120246699765</v>
       </c>
       <c r="E25" s="2">
-        <v>0.5577157518458662</v>
+        <v>0.6760961033300235</v>
       </c>
       <c r="F25" s="2">
-        <v>41.28145051736256</v>
+        <v>50.04382204057498</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -21773,13 +21773,13 @@
         <v>10.38605814</v>
       </c>
       <c r="D26" s="2">
-        <v>10.4896863815555</v>
+        <v>10.49887074661801</v>
       </c>
       <c r="E26" s="2">
-        <v>0.1036282415554979</v>
+        <v>0.1128126066180126</v>
       </c>
       <c r="F26" s="2">
-        <v>0.9977629641451043</v>
+        <v>1.086192712358653</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21793,13 +21793,13 @@
         <v>11.15387621</v>
       </c>
       <c r="D27" s="2">
-        <v>10.24155504071667</v>
+        <v>10.16529017539739</v>
       </c>
       <c r="E27" s="2">
-        <v>0.9123211692833344</v>
+        <v>0.9885860346026067</v>
       </c>
       <c r="F27" s="2">
-        <v>8.179409131915893</v>
+        <v>8.863161254347531</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21813,13 +21813,13 @@
         <v>16.87700748</v>
       </c>
       <c r="D28" s="2">
-        <v>16.86282300672451</v>
+        <v>15.81679362435365</v>
       </c>
       <c r="E28" s="2">
-        <v>0.01418447327549188</v>
+        <v>1.060213855646346</v>
       </c>
       <c r="F28" s="2">
-        <v>0.08404613965065259</v>
+        <v>6.282001456139342</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21833,13 +21833,13 @@
         <v>15.72084501</v>
       </c>
       <c r="D29" s="2">
-        <v>16.78406662013355</v>
+        <v>15.7309709015132</v>
       </c>
       <c r="E29" s="2">
-        <v>1.063221610133548</v>
+        <v>0.01012589151319609</v>
       </c>
       <c r="F29" s="2">
-        <v>6.763132703472582</v>
+        <v>0.06441060583419679</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21873,13 +21873,13 @@
         <v>0.570021808</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1033552497548259</v>
+        <v>0.1126286938465608</v>
       </c>
       <c r="E31" s="2">
-        <v>0.4666665582451741</v>
+        <v>0.4573931141534393</v>
       </c>
       <c r="F31" s="2">
-        <v>81.86819375955771</v>
+        <v>80.24133598647147</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -21893,13 +21893,13 @@
         <v>2.172602845</v>
       </c>
       <c r="D32" s="2">
-        <v>1.304820294605971</v>
+        <v>1.421893961212098</v>
       </c>
       <c r="E32" s="2">
-        <v>0.8677825503940291</v>
+        <v>0.7507088837879023</v>
       </c>
       <c r="F32" s="2">
-        <v>39.94207005625223</v>
+        <v>34.55343370812452</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -21933,13 +21933,13 @@
         <v>0.411</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4292995316555679</v>
+        <v>0.4678179931256874</v>
       </c>
       <c r="E34" s="2">
-        <v>0.01829953165556791</v>
+        <v>0.05681799312568747</v>
       </c>
       <c r="F34" s="2">
-        <v>4.452440792108982</v>
+        <v>13.82432922766119</v>
       </c>
     </row>
   </sheetData>
@@ -22166,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -22383,7 +22383,7 @@
         <v>0.227770042</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.227770042</v>
@@ -22839,7 +22839,7 @@
         <v>0.343324251</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.343324251</v>
@@ -23059,7 +23059,7 @@
         <v>0.505177112</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.505177112</v>
@@ -23515,7 +23515,7 @@
         <v>0.213537676</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.213537676</v>
@@ -23735,7 +23735,7 @@
         <v>0.594636015</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.594636015</v>
@@ -24188,7 +24188,7 @@
         <v>0.058178487</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.058178487</v>
@@ -24408,7 +24408,7 @@
         <v>-0.409290762</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.409290762</v>
@@ -24724,13 +24724,13 @@
         <v>-23.16295957</v>
       </c>
       <c r="D5" s="2">
-        <v>-22.77696433454422</v>
+        <v>-21.74008040731076</v>
       </c>
       <c r="E5" s="2">
-        <v>0.3859952354557841</v>
+        <v>1.422879162689238</v>
       </c>
       <c r="F5" s="2">
-        <v>1.666433144215794</v>
+        <v>6.142907422469926</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -24744,13 +24744,13 @@
         <v>20.49176794</v>
       </c>
       <c r="D6" s="2">
-        <v>0.637136588337016</v>
+        <v>0.7218587604318101</v>
       </c>
       <c r="E6" s="2">
-        <v>19.85463135166298</v>
+        <v>19.76990917956819</v>
       </c>
       <c r="F6" s="2">
-        <v>96.89076808695788</v>
+        <v>96.47732317413794</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -24781,13 +24781,13 @@
         <v>0.709791332</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="E8" s="2">
-        <v>0.4314697120943732</v>
+        <v>0.39446036023641</v>
       </c>
       <c r="F8" s="2">
-        <v>60.78824756546523</v>
+        <v>55.57413037503957</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -24801,10 +24801,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3763619000061752</v>
+        <v>0.4264079941183867</v>
       </c>
       <c r="E9" s="2">
-        <v>0.3763619000061752</v>
+        <v>0.4264079941183867</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>188</v>
@@ -24821,13 +24821,13 @@
         <v>-0.709791332</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.3763619000061752</v>
+        <v>-0.4264079941183867</v>
       </c>
       <c r="E10" s="2">
-        <v>0.3334294319938248</v>
+        <v>0.2833833378816133</v>
       </c>
       <c r="F10" s="2">
-        <v>46.97569792157236</v>
+        <v>39.92488004652237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -24878,13 +24878,13 @@
         <v>23.33605442</v>
       </c>
       <c r="D13" s="2">
-        <v>22.97223808831656</v>
+        <v>21.96132036185629</v>
       </c>
       <c r="E13" s="2">
-        <v>0.363816331683438</v>
+        <v>1.374734058143712</v>
       </c>
       <c r="F13" s="2">
-        <v>1.559031038990172</v>
+        <v>5.891030391862243</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -24898,13 +24898,13 @@
         <v>-12.4105939</v>
       </c>
       <c r="D14" s="2">
-        <v>-11.59606592416218</v>
+        <v>-11.45657630566086</v>
       </c>
       <c r="E14" s="2">
-        <v>0.8145279758378194</v>
+        <v>0.9540175943391382</v>
       </c>
       <c r="F14" s="2">
-        <v>6.563166778326535</v>
+        <v>7.687122808354387</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -24918,13 +24918,13 @@
         <v>23.33605442</v>
       </c>
       <c r="D15" s="2">
-        <v>23.44990788394482</v>
+        <v>23.10482048630643</v>
       </c>
       <c r="E15" s="2">
-        <v>0.113853463944821</v>
+        <v>0.23123393369357</v>
       </c>
       <c r="F15" s="2">
-        <v>0.4878865205561214</v>
+        <v>0.9908870177102116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -24938,13 +24938,13 @@
         <v>12.4105939</v>
       </c>
       <c r="D16" s="2">
-        <v>11.25793573594163</v>
+        <v>11.17386931904258</v>
       </c>
       <c r="E16" s="2">
-        <v>1.152658164058366</v>
+        <v>1.23672458095742</v>
       </c>
       <c r="F16" s="2">
-        <v>9.287695442668264</v>
+        <v>9.965071703437332</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -24958,13 +24958,13 @@
         <v>-0.214064053</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1387492795674386</v>
+        <v>-0.1571992329318312</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0753147734325614</v>
+        <v>0.05686482006816881</v>
       </c>
       <c r="F17" s="2">
-        <v>35.18328854240716</v>
+        <v>26.56439475532532</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -24978,10 +24978,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="E18" s="2">
-        <v>0.2783216199056268</v>
+        <v>0.31533097176359</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>188</v>
@@ -24998,13 +24998,13 @@
         <v>0.709791332</v>
       </c>
       <c r="D19" s="2">
-        <v>-23.44990788394482</v>
+        <v>-23.10482048630643</v>
       </c>
       <c r="E19" s="2">
-        <v>24.15969921594482</v>
+        <v>23.81461181830643</v>
       </c>
       <c r="F19" s="2">
-        <v>3403.774902106697</v>
+        <v>3355.156754479277</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25018,13 +25018,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="D20" s="2">
-        <v>-22.97223808831656</v>
+        <v>-21.96132036185629</v>
       </c>
       <c r="E20" s="2">
-        <v>0.363816331683438</v>
+        <v>1.374734058143712</v>
       </c>
       <c r="F20" s="2">
-        <v>1.559031038990172</v>
+        <v>5.891030391862243</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -25038,13 +25038,13 @@
         <v>-23.33605442</v>
       </c>
       <c r="D21" s="2">
-        <v>1.040081918467076</v>
+        <v>0.8772285784586145</v>
       </c>
       <c r="E21" s="2">
-        <v>24.37613633846708</v>
+        <v>24.21328299845861</v>
       </c>
       <c r="F21" s="2">
-        <v>104.4569741728734</v>
+        <v>103.7591126703355</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -25058,13 +25058,13 @@
         <v>0.936146144</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.3415258309092417</v>
+        <v>-0.2865541592136092</v>
       </c>
       <c r="E22" s="2">
-        <v>1.277671974909242</v>
+        <v>1.222700303213609</v>
       </c>
       <c r="F22" s="2">
-        <v>136.4821062499876</v>
+        <v>130.6099812566882</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25078,7 +25078,7 @@
         <v>-0.306244745</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.306244745</v>
@@ -25098,13 +25098,13 @@
         <v>0.306244745</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2438889540230695</v>
+        <v>0.1759341819408475</v>
       </c>
       <c r="E24" s="2">
-        <v>0.06235579097693045</v>
+        <v>0.1303105630591525</v>
       </c>
       <c r="F24" s="2">
-        <v>20.36142399012608</v>
+        <v>42.5511180801331</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -25118,13 +25118,13 @@
         <v>0.936146144</v>
       </c>
       <c r="D25" s="2">
-        <v>1.040081918467076</v>
+        <v>0.8772285784586145</v>
       </c>
       <c r="E25" s="2">
-        <v>0.1039357744670765</v>
+        <v>0.0589175655413855</v>
       </c>
       <c r="F25" s="2">
-        <v>11.10251589810281</v>
+        <v>6.293629036342588</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -25138,13 +25138,13 @@
         <v>11.88516395</v>
       </c>
       <c r="D26" s="2">
-        <v>11.31265821666494</v>
+        <v>11.33625392789571</v>
       </c>
       <c r="E26" s="2">
-        <v>0.5725057333350652</v>
+        <v>0.5489100221042911</v>
       </c>
       <c r="F26" s="2">
-        <v>4.816978005045232</v>
+        <v>4.618447203702992</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25158,13 +25158,13 @@
         <v>12.4105939</v>
       </c>
       <c r="D27" s="2">
-        <v>11.25793573594163</v>
+        <v>11.17386931904258</v>
       </c>
       <c r="E27" s="2">
-        <v>1.152658164058366</v>
+        <v>1.23672458095742</v>
       </c>
       <c r="F27" s="2">
-        <v>9.287695442668264</v>
+        <v>9.965071703437332</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25178,13 +25178,13 @@
         <v>20.49186441</v>
       </c>
       <c r="D28" s="2">
-        <v>20.76984235450314</v>
+        <v>19.46606473928964</v>
       </c>
       <c r="E28" s="2">
-        <v>0.2779779445031352</v>
+        <v>1.025799670710359</v>
       </c>
       <c r="F28" s="2">
-        <v>1.356528322369156</v>
+        <v>5.005887459463037</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -25198,13 +25198,13 @@
         <v>19.34656322</v>
       </c>
       <c r="D29" s="2">
-        <v>20.70207163702287</v>
+        <v>19.38928232401262</v>
       </c>
       <c r="E29" s="2">
-        <v>1.355508417022872</v>
+        <v>0.04271910401261891</v>
       </c>
       <c r="F29" s="2">
-        <v>7.00645588370745</v>
+        <v>0.2208097817004364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -25238,13 +25238,13 @@
         <v>0.428345233</v>
       </c>
       <c r="D31" s="2">
-        <v>0.08893830372914024</v>
+        <v>0.1007647259002894</v>
       </c>
       <c r="E31" s="2">
-        <v>0.3394069292708597</v>
+        <v>0.3275805070997105</v>
       </c>
       <c r="F31" s="2">
-        <v>79.23677051189682</v>
+        <v>76.47581480140121</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -25258,13 +25258,13 @@
         <v>1.412618456</v>
       </c>
       <c r="D32" s="2">
-        <v>1.005055741151861</v>
+        <v>1.13870134718033</v>
       </c>
       <c r="E32" s="2">
-        <v>0.4075627148481391</v>
+        <v>0.2739171088196704</v>
       </c>
       <c r="F32" s="2">
-        <v>28.8515779414494</v>
+        <v>19.39073552778716</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -25298,13 +25298,13 @@
         <v>0.4</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3694168629821116</v>
+        <v>0.4185394524130219</v>
       </c>
       <c r="E34" s="2">
-        <v>0.03058313701788845</v>
+        <v>0.01853945241302185</v>
       </c>
       <c r="F34" s="2">
-        <v>7.645784254472113</v>
+        <v>4.634863103255463</v>
       </c>
     </row>
   </sheetData>
@@ -25394,13 +25394,13 @@
         <v>-13.40648379</v>
       </c>
       <c r="D5" s="2">
-        <v>-10.16119527145488</v>
+        <v>-10.14468411219654</v>
       </c>
       <c r="E5" s="2">
-        <v>3.245288518545117</v>
+        <v>3.261799677803459</v>
       </c>
       <c r="F5" s="2">
-        <v>24.20685818428992</v>
+        <v>24.33001619885194</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -25454,13 +25454,13 @@
         <v>2.122313264</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2839598075187141</v>
+        <v>0.2845479189599008</v>
       </c>
       <c r="E8" s="2">
-        <v>1.838353456481286</v>
+        <v>1.837765345040099</v>
       </c>
       <c r="F8" s="2">
-        <v>86.6202689143296</v>
+        <v>86.59255804566743</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -25474,13 +25474,13 @@
         <v>0.462652892</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="E9" s="2">
-        <v>0.07866672262024027</v>
+        <v>0.07787144577651023</v>
       </c>
       <c r="F9" s="2">
-        <v>17.00340016900624</v>
+        <v>16.83150524357043</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -25494,13 +25494,13 @@
         <v>-2.122313264</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.3839861693797597</v>
+        <v>-0.3847814462234898</v>
       </c>
       <c r="E10" s="2">
-        <v>1.73832709462024</v>
+        <v>1.73753181777651</v>
       </c>
       <c r="F10" s="2">
-        <v>81.90718703533676</v>
+        <v>81.86971486488859</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -25534,7 +25534,7 @@
         <v>0.769504809</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.769504809</v>
@@ -25554,13 +25554,13 @@
         <v>13.49958437</v>
       </c>
       <c r="D13" s="2">
-        <v>10.36042484461364</v>
+        <v>10.34432631132663</v>
       </c>
       <c r="E13" s="2">
-        <v>3.139159525386363</v>
+        <v>3.155258058673368</v>
       </c>
       <c r="F13" s="2">
-        <v>23.25374944403835</v>
+        <v>23.37300151021885</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -25574,13 +25574,13 @@
         <v>-7.543047144</v>
       </c>
       <c r="D14" s="2">
-        <v>-6.513239397998865</v>
+        <v>-6.510160156158318</v>
       </c>
       <c r="E14" s="2">
-        <v>1.029807746001135</v>
+        <v>1.032886987841682</v>
       </c>
       <c r="F14" s="2">
-        <v>13.65241031033831</v>
+        <v>13.69323256402124</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -25594,13 +25594,13 @@
         <v>13.49958437</v>
       </c>
       <c r="D15" s="2">
-        <v>12.93575957576117</v>
+        <v>12.92941320277341</v>
       </c>
       <c r="E15" s="2">
-        <v>0.5638247942388261</v>
+        <v>0.5701711672265919</v>
       </c>
       <c r="F15" s="2">
-        <v>4.176608544273472</v>
+        <v>4.223620161919043</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -25614,13 +25614,13 @@
         <v>7.543047144</v>
       </c>
       <c r="D16" s="2">
-        <v>6.516703828985617</v>
+        <v>6.513631762355951</v>
       </c>
       <c r="E16" s="2">
-        <v>1.026343315014383</v>
+        <v>1.029415381644049</v>
       </c>
       <c r="F16" s="2">
-        <v>13.60648151100013</v>
+        <v>13.64720864117735</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -25634,13 +25634,13 @@
         <v>-0.198551241</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1415600366679661</v>
+        <v>-0.1418532227984727</v>
       </c>
       <c r="E17" s="2">
-        <v>0.05699120433203392</v>
+        <v>0.05669801820152726</v>
       </c>
       <c r="F17" s="2">
-        <v>28.70352461409895</v>
+        <v>28.55586191049154</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -25654,10 +25654,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="E18" s="2">
-        <v>0.3839861693797597</v>
+        <v>0.3847814462234898</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>188</v>
@@ -25674,13 +25674,13 @@
         <v>2.122313264</v>
       </c>
       <c r="D19" s="2">
-        <v>-12.93575957576117</v>
+        <v>-12.92941320277341</v>
       </c>
       <c r="E19" s="2">
-        <v>15.05807283976118</v>
+        <v>15.05172646677341</v>
       </c>
       <c r="F19" s="2">
-        <v>709.5122616997966</v>
+        <v>709.2132307746538</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -25694,13 +25694,13 @@
         <v>-13.49958437</v>
       </c>
       <c r="D20" s="2">
-        <v>-10.36042484461364</v>
+        <v>-10.34432631132663</v>
       </c>
       <c r="E20" s="2">
-        <v>3.139159525386363</v>
+        <v>3.155258058673368</v>
       </c>
       <c r="F20" s="2">
-        <v>23.25374944403835</v>
+        <v>23.37300151021885</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -25734,13 +25734,13 @@
         <v>0.306851918</v>
       </c>
       <c r="D22" s="2">
-        <v>0.0052728371708083</v>
+        <v>0.005283757786285113</v>
       </c>
       <c r="E22" s="2">
-        <v>0.3015790808291917</v>
+        <v>0.3015681602137149</v>
       </c>
       <c r="F22" s="2">
-        <v>98.28163460565096</v>
+        <v>98.27807568526097</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -25754,13 +25754,13 @@
         <v>-0.09880061800000001</v>
       </c>
       <c r="D23" s="2">
-        <v>0.0052728371708083</v>
+        <v>-0.005283757786285113</v>
       </c>
       <c r="E23" s="2">
-        <v>0.1040734551708083</v>
+        <v>0.09351686021371489</v>
       </c>
       <c r="F23" s="2">
-        <v>105.3368463452408</v>
+        <v>94.65210046936637</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -25774,13 +25774,13 @@
         <v>0.09880061800000001</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.1048876237501865</v>
+        <v>-0.1051048573513306</v>
       </c>
       <c r="E24" s="2">
-        <v>0.2036882417501865</v>
+        <v>0.2039054753513306</v>
       </c>
       <c r="F24" s="2">
-        <v>206.1608984573218</v>
+        <v>206.3807691479527</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -25814,13 +25814,13 @@
         <v>7.3919962</v>
       </c>
       <c r="D26" s="2">
-        <v>6.931524939561562</v>
+        <v>6.929312012270346</v>
       </c>
       <c r="E26" s="2">
-        <v>0.460471260438438</v>
+        <v>0.4626841877296544</v>
       </c>
       <c r="F26" s="2">
-        <v>6.229322201740823</v>
+        <v>6.259259004078686</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -25834,13 +25834,13 @@
         <v>7.543047144</v>
       </c>
       <c r="D27" s="2">
-        <v>6.516703828985617</v>
+        <v>6.513631762355951</v>
       </c>
       <c r="E27" s="2">
-        <v>1.026343315014383</v>
+        <v>1.029415381644049</v>
       </c>
       <c r="F27" s="2">
-        <v>13.60648151100013</v>
+        <v>13.64720864117735</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -25854,13 +25854,13 @@
         <v>11.08259006</v>
       </c>
       <c r="D28" s="2">
-        <v>8.763456970479035</v>
+        <v>8.744050944183797</v>
       </c>
       <c r="E28" s="2">
-        <v>2.319133089520964</v>
+        <v>2.338539115816202</v>
       </c>
       <c r="F28" s="2">
-        <v>20.92591241727265</v>
+        <v>21.10101612669595</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -25874,13 +25874,13 @@
         <v>8.041365861999999</v>
       </c>
       <c r="D29" s="2">
-        <v>8.044269783560958</v>
+        <v>8.023374242898608</v>
       </c>
       <c r="E29" s="2">
-        <v>0.002903921560958977</v>
+        <v>0.01799161910139091</v>
       </c>
       <c r="F29" s="2">
-        <v>0.03611229249848771</v>
+        <v>0.223738347566195</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -25894,13 +25894,13 @@
         <v>3.041224194</v>
       </c>
       <c r="D30" s="2">
-        <v>0.001448500001949182</v>
+        <v>0.001451500000107186</v>
       </c>
       <c r="E30" s="2">
-        <v>3.039775693998051</v>
+        <v>3.039772693999893</v>
       </c>
       <c r="F30" s="2">
-        <v>99.95237115353723</v>
+        <v>99.95227250911095</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -25914,13 +25914,13 @@
         <v>2.376191152</v>
       </c>
       <c r="D31" s="2">
-        <v>0.7407835821923807</v>
+        <v>0.7423178250274411</v>
       </c>
       <c r="E31" s="2">
-        <v>1.635407569807619</v>
+        <v>1.633873326972559</v>
       </c>
       <c r="F31" s="2">
-        <v>68.82474789248855</v>
+        <v>68.76018057711204</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -25934,13 +25934,13 @@
         <v>0.322183273</v>
       </c>
       <c r="D32" s="2">
-        <v>0.4348330540859676</v>
+        <v>0.4357336403215645</v>
       </c>
       <c r="E32" s="2">
-        <v>0.1126497810859676</v>
+        <v>0.1135503673215645</v>
       </c>
       <c r="F32" s="2">
-        <v>34.96450328939565</v>
+        <v>35.24402935765214</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -25974,13 +25974,13 @@
         <v>0.17</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3769004410873181</v>
+        <v>0.3776810426221926</v>
       </c>
       <c r="E34" s="2">
-        <v>0.2069004410873181</v>
+        <v>0.2076810426221926</v>
       </c>
       <c r="F34" s="2">
-        <v>121.7061418160694</v>
+        <v>122.1653191895251</v>
       </c>
     </row>
   </sheetData>
@@ -26210,7 +26210,7 @@
         <v>0.680740943</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.680740943</v>
@@ -26430,7 +26430,7 @@
         <v>-0.247269136</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.247269136</v>
@@ -26886,7 +26886,7 @@
         <v>0.9201430350000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.9201430350000001</v>
@@ -27106,7 +27106,7 @@
         <v>-0.326405473</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.326405473</v>
@@ -27562,7 +27562,7 @@
         <v>0.941713699</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.941713699</v>
@@ -27782,7 +27782,7 @@
         <v>-0.134530528</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.134530528</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -28452,7 +28452,7 @@
         <v>-0.306244745</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.306244745</v>
@@ -28905,7 +28905,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -29122,7 +29122,7 @@
         <v>-0.457097918</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.457097918</v>
@@ -29578,7 +29578,7 @@
         <v>0.222241192</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.222241192</v>
@@ -29798,7 +29798,7 @@
         <v>-0.210228155</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.210228155</v>
@@ -30254,7 +30254,7 @@
         <v>1.111853633</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>1.111853633</v>
@@ -30474,7 +30474,7 @@
         <v>-0.205394262</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.205394262</v>
@@ -30930,7 +30930,7 @@
         <v>1.055725766</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>1.055725766</v>
@@ -31150,7 +31150,7 @@
         <v>0.411916123</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.411916123</v>
@@ -31603,7 +31603,7 @@
         <v>0.046826242</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.046826242</v>
@@ -31823,7 +31823,7 @@
         <v>-0.354683877</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.354683877</v>
@@ -32279,7 +32279,7 @@
         <v>0.229507055</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.229507055</v>
@@ -32499,7 +32499,7 @@
         <v>-0.170005226</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.170005226</v>
@@ -32955,7 +32955,7 @@
         <v>3.521541776</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>3.521541776</v>
@@ -33175,13 +33175,13 @@
         <v>-0.023003539</v>
       </c>
       <c r="D23" s="2">
-        <v>0.004845849220161721</v>
+        <v>-0.004845849220161721</v>
       </c>
       <c r="E23" s="2">
-        <v>0.02784938822016172</v>
+        <v>0.01815768977983828</v>
       </c>
       <c r="F23" s="2">
-        <v>121.0656682876566</v>
+        <v>78.93433171234338</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -33631,7 +33631,7 @@
         <v>0.052519502</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.052519502</v>
@@ -33851,7 +33851,7 @@
         <v>0.03468269</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.03468269</v>
@@ -34307,7 +34307,7 @@
         <v>0.268459168</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.268459168</v>
@@ -34527,7 +34527,7 @@
         <v>0.376047766</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.376047766</v>
@@ -34983,7 +34983,7 @@
         <v>0.07662161100000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.07662161100000001</v>
@@ -35203,7 +35203,7 @@
         <v>0.532152835</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.532152835</v>
@@ -35659,7 +35659,7 @@
         <v>0.101978606</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.101978606</v>
@@ -35879,7 +35879,7 @@
         <v>0.407914424</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.407914424</v>
@@ -36195,13 +36195,13 @@
         <v>-14.93827133</v>
       </c>
       <c r="D5" s="2">
-        <v>-13.71412437557057</v>
+        <v>-13.72280136052821</v>
       </c>
       <c r="E5" s="2">
-        <v>1.224146954429425</v>
+        <v>1.215469969471792</v>
       </c>
       <c r="F5" s="2">
-        <v>8.194702903615191</v>
+        <v>8.136617300763623</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -36215,13 +36215,13 @@
         <v>12.84216975</v>
       </c>
       <c r="D6" s="2">
-        <v>0.5723975238868468</v>
+        <v>0.5716929552386592</v>
       </c>
       <c r="E6" s="2">
-        <v>12.26977222611315</v>
+        <v>12.27047679476134</v>
       </c>
       <c r="F6" s="2">
-        <v>95.54282854821439</v>
+        <v>95.54831491587581</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -36252,13 +36252,13 @@
         <v>0.609166852</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2500388729323905</v>
+        <v>0.2497310981022339</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3591279790676095</v>
+        <v>0.3594357538977661</v>
       </c>
       <c r="F8" s="2">
-        <v>58.9539594757217</v>
+        <v>59.00448337227746</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -36272,10 +36272,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3381199943503042</v>
+        <v>0.3377037997697849</v>
       </c>
       <c r="E9" s="2">
-        <v>0.3381199943503042</v>
+        <v>0.3377037997697849</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>188</v>
@@ -36292,13 +36292,13 @@
         <v>-0.609166852</v>
       </c>
       <c r="D10" s="2">
-        <v>-0.3381199943503042</v>
+        <v>-0.3377037997697849</v>
       </c>
       <c r="E10" s="2">
-        <v>0.2710468576496958</v>
+        <v>0.2714630522302151</v>
       </c>
       <c r="F10" s="2">
-        <v>44.49468265710817</v>
+        <v>44.56300459208426</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -36332,7 +36332,7 @@
         <v>0.101358877</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.101358877</v>
@@ -36352,13 +36352,13 @@
         <v>15.06091557</v>
       </c>
       <c r="D13" s="2">
-        <v>13.88955648100203</v>
+        <v>13.89801752519086</v>
       </c>
       <c r="E13" s="2">
-        <v>1.171359088997967</v>
+        <v>1.162898044809143</v>
       </c>
       <c r="F13" s="2">
-        <v>7.777475967870171</v>
+        <v>7.72129715092177</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -36372,13 +36372,13 @@
         <v>-8.323591</v>
       </c>
       <c r="D14" s="2">
-        <v>-7.65368579850471</v>
+        <v>-7.654835021096109</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6699052014952906</v>
+        <v>0.6687559789038913</v>
       </c>
       <c r="F14" s="2">
-        <v>8.048271491178394</v>
+        <v>8.034464678813402</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -36392,13 +36392,13 @@
         <v>15.06091557</v>
       </c>
       <c r="D15" s="2">
-        <v>15.36463194418415</v>
+        <v>15.36749096417256</v>
       </c>
       <c r="E15" s="2">
-        <v>0.3037163741841464</v>
+        <v>0.30657539417256</v>
       </c>
       <c r="F15" s="2">
-        <v>2.016586393918324</v>
+        <v>2.035569436317874</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -36412,13 +36412,13 @@
         <v>8.323591</v>
       </c>
       <c r="D16" s="2">
-        <v>7.524236035709749</v>
+        <v>7.524913542019296</v>
       </c>
       <c r="E16" s="2">
-        <v>0.7993549642902513</v>
+        <v>0.7986774579807046</v>
       </c>
       <c r="F16" s="2">
-        <v>9.603486815849688</v>
+        <v>9.59534722430144</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -36452,13 +36452,13 @@
         <v>0.609166852</v>
       </c>
       <c r="D18" s="2">
-        <v>0.2500388729323905</v>
+        <v>0.2497310981022339</v>
       </c>
       <c r="E18" s="2">
-        <v>0.3591279790676095</v>
+        <v>0.3594357538977661</v>
       </c>
       <c r="F18" s="2">
-        <v>58.9539594757217</v>
+        <v>59.00448337227746</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -36472,13 +36472,13 @@
         <v>-15.06091557</v>
       </c>
       <c r="D19" s="2">
-        <v>-15.36463194418415</v>
+        <v>-15.36749096417256</v>
       </c>
       <c r="E19" s="2">
-        <v>0.3037163741841464</v>
+        <v>0.30657539417256</v>
       </c>
       <c r="F19" s="2">
-        <v>2.016586393918324</v>
+        <v>2.035569436317874</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -36492,13 +36492,13 @@
         <v>-15.06091557</v>
       </c>
       <c r="D20" s="2">
-        <v>-13.88955648100203</v>
+        <v>-13.89801752519086</v>
       </c>
       <c r="E20" s="2">
-        <v>1.171359088997967</v>
+        <v>1.162898044809143</v>
       </c>
       <c r="F20" s="2">
-        <v>7.777475967870171</v>
+        <v>7.72129715092177</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -36512,13 +36512,13 @@
         <v>0.889930942</v>
       </c>
       <c r="D21" s="2">
-        <v>0.4114301592260023</v>
+        <v>0.4128168976447339</v>
       </c>
       <c r="E21" s="2">
-        <v>0.4785007827739977</v>
+        <v>0.4771140443552661</v>
       </c>
       <c r="F21" s="2">
-        <v>53.76830495393627</v>
+        <v>53.61247955746055</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -36532,13 +36532,13 @@
         <v>-0.291913566</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.1325003762781485</v>
+        <v>-0.13296833753569</v>
       </c>
       <c r="E22" s="2">
-        <v>0.1594131897218515</v>
+        <v>0.15894522846431</v>
       </c>
       <c r="F22" s="2">
-        <v>54.60972297596184</v>
+        <v>54.44941481901186</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -36552,7 +36552,7 @@
         <v>0.291913566</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.291913566</v>
@@ -36572,13 +36572,13 @@
         <v>0.23109824</v>
       </c>
       <c r="D24" s="2">
-        <v>0.04478432356241857</v>
+        <v>0.04536025520436482</v>
       </c>
       <c r="E24" s="2">
-        <v>0.1863139164375814</v>
+        <v>0.1857379847956352</v>
       </c>
       <c r="F24" s="2">
-        <v>80.6210884330324</v>
+        <v>80.37187336244325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -36592,13 +36592,13 @@
         <v>0.889930942</v>
       </c>
       <c r="D25" s="2">
-        <v>0.4114301592260023</v>
+        <v>0.4128168976447339</v>
       </c>
       <c r="E25" s="2">
-        <v>0.4785007827739977</v>
+        <v>0.4771140443552661</v>
       </c>
       <c r="F25" s="2">
-        <v>53.76830495393627</v>
+        <v>53.61247955746055</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -36612,13 +36612,13 @@
         <v>7.800579194</v>
       </c>
       <c r="D26" s="2">
-        <v>7.747721419117463</v>
+        <v>7.747492778476817</v>
       </c>
       <c r="E26" s="2">
-        <v>0.05285777488253718</v>
+        <v>0.0530864155231825</v>
       </c>
       <c r="F26" s="2">
-        <v>0.6776134639232172</v>
+        <v>0.6805445365392248</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -36632,13 +36632,13 @@
         <v>8.323591</v>
       </c>
       <c r="D27" s="2">
-        <v>7.524236035709749</v>
+        <v>7.524913542019296</v>
       </c>
       <c r="E27" s="2">
-        <v>0.7993549642902513</v>
+        <v>0.7986774579807046</v>
       </c>
       <c r="F27" s="2">
-        <v>9.603486815849688</v>
+        <v>9.59534722430144</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -36652,13 +36652,13 @@
         <v>12.84134784</v>
       </c>
       <c r="D28" s="2">
-        <v>11.78629645540752</v>
+        <v>11.79734641902939</v>
       </c>
       <c r="E28" s="2">
-        <v>1.055051384592483</v>
+        <v>1.044001420970611</v>
       </c>
       <c r="F28" s="2">
-        <v>8.216048640206315</v>
+        <v>8.129998766318062</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -36672,13 +36672,13 @@
         <v>11.72674227</v>
       </c>
       <c r="D29" s="2">
-        <v>11.72541187965432</v>
+        <v>11.73653678658297</v>
       </c>
       <c r="E29" s="2">
-        <v>0.001330390345682275</v>
+        <v>0.009794516582971369</v>
       </c>
       <c r="F29" s="2">
-        <v>0.0113449269630983</v>
+        <v>0.08352291162762433</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -36712,13 +36712,13 @@
         <v>0.303758115</v>
       </c>
       <c r="D31" s="2">
-        <v>0.07990133633061466</v>
+        <v>0.07980298514253731</v>
       </c>
       <c r="E31" s="2">
-        <v>0.2238567786693853</v>
+        <v>0.2239551298574627</v>
       </c>
       <c r="F31" s="2">
-        <v>73.69573605280812</v>
+        <v>73.7281141797521</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -36732,13 +36732,13 @@
         <v>1.106345819</v>
       </c>
       <c r="D32" s="2">
-        <v>0.9029347152072411</v>
+        <v>0.9018232857118208</v>
       </c>
       <c r="E32" s="2">
-        <v>0.2034111037927588</v>
+        <v>0.2045225332881792</v>
       </c>
       <c r="F32" s="2">
-        <v>18.38585190086562</v>
+        <v>18.48631140243674</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -36772,13 +36772,13 @@
         <v>0.2097</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3318806383493366</v>
+        <v>0.3314721238415635</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1221806383493366</v>
+        <v>0.1217721238415635</v>
       </c>
       <c r="F34" s="2">
-        <v>58.26449134446191</v>
+        <v>58.06968232787959</v>
       </c>
     </row>
   </sheetData>
@@ -36868,13 +36868,13 @@
         <v>-27.55341866</v>
       </c>
       <c r="D5" s="2">
-        <v>-26.97499071057639</v>
+        <v>-26.98135730960793</v>
       </c>
       <c r="E5" s="2">
-        <v>0.5784279494236131</v>
+        <v>0.5720613503920688</v>
       </c>
       <c r="F5" s="2">
-        <v>2.099296484988745</v>
+        <v>2.076190099860621</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -36888,13 +36888,13 @@
         <v>24.21818063</v>
       </c>
       <c r="D6" s="2">
-        <v>1.553784671422535</v>
+        <v>1.546019852155642</v>
       </c>
       <c r="E6" s="2">
-        <v>22.66439595857747</v>
+        <v>22.67216077784436</v>
       </c>
       <c r="F6" s="2">
-        <v>93.58422213806679</v>
+        <v>93.61628408105716</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -36928,13 +36928,13 @@
         <v>0.7115849279999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.3744947099122973</v>
+        <v>0.3739517652891211</v>
       </c>
       <c r="E8" s="2">
-        <v>0.3370902180877027</v>
+        <v>0.3376331627108788</v>
       </c>
       <c r="F8" s="2">
-        <v>47.37174788610794</v>
+        <v>47.44804863417215</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -36948,13 +36948,13 @@
         <v>0.066805982</v>
       </c>
       <c r="D9" s="2">
-        <v>1.202900175665283</v>
+        <v>1.195644070794841</v>
       </c>
       <c r="E9" s="2">
-        <v>1.136094193665283</v>
+        <v>1.128838088794841</v>
       </c>
       <c r="F9" s="2">
-        <v>1700.587521736127</v>
+        <v>1689.726061948826</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -36968,13 +36968,13 @@
         <v>-0.7115849279999999</v>
       </c>
       <c r="D10" s="2">
-        <v>-1.202900175665283</v>
+        <v>-1.195644070794841</v>
       </c>
       <c r="E10" s="2">
-        <v>0.4913152476652827</v>
+        <v>0.4840591427948413</v>
       </c>
       <c r="F10" s="2">
-        <v>69.04520153991832</v>
+        <v>68.02549123059016</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -36988,13 +36988,13 @@
         <v>-0.370469536</v>
       </c>
       <c r="D11" s="2">
-        <v>-0.696483723468959</v>
+        <v>-0.689961824136087</v>
       </c>
       <c r="E11" s="2">
-        <v>0.326014187468959</v>
+        <v>0.319492288136087</v>
       </c>
       <c r="F11" s="2">
-        <v>88.0002687910509</v>
+        <v>86.23982732444888</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -37008,7 +37008,7 @@
         <v>0.107294456</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E12" s="2">
         <v>0.107294456</v>
@@ -37028,13 +37028,13 @@
         <v>27.11310651</v>
       </c>
       <c r="D13" s="2">
-        <v>27.23774064641412</v>
+        <v>27.24372630905024</v>
       </c>
       <c r="E13" s="2">
-        <v>0.124634136414123</v>
+        <v>0.1306197990502369</v>
       </c>
       <c r="F13" s="2">
-        <v>0.4596822439662338</v>
+        <v>0.4817588829301467</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -37048,13 +37048,13 @@
         <v>-14.31166329</v>
       </c>
       <c r="D14" s="2">
-        <v>-13.62427509691376</v>
+        <v>-13.62680074792991</v>
       </c>
       <c r="E14" s="2">
-        <v>0.6873881930862371</v>
+        <v>0.6848625420700927</v>
       </c>
       <c r="F14" s="2">
-        <v>4.802993049497863</v>
+        <v>4.785345547841579</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -37068,13 +37068,13 @@
         <v>27.11310651</v>
       </c>
       <c r="D15" s="2">
-        <v>27.5438473998268</v>
+        <v>27.54938926709951</v>
       </c>
       <c r="E15" s="2">
-        <v>0.4307408898268008</v>
+        <v>0.4362827570995087</v>
       </c>
       <c r="F15" s="2">
-        <v>1.588681435924477</v>
+        <v>1.609121245249402</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -37088,13 +37088,13 @@
         <v>14.31166329</v>
       </c>
       <c r="D16" s="2">
-        <v>13.22085763393114</v>
+        <v>13.2230494730885</v>
       </c>
       <c r="E16" s="2">
-        <v>1.090805656068861</v>
+        <v>1.088613816911497</v>
       </c>
       <c r="F16" s="2">
-        <v>7.621795132862304</v>
+        <v>7.606480077491379</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -37108,13 +37108,13 @@
         <v>-0.211552276</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.1866936216445697</v>
+        <v>-0.1864229521388037</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0248586543554303</v>
+        <v>0.02512932386119635</v>
       </c>
       <c r="F17" s="2">
-        <v>11.75059650761228</v>
+        <v>11.8785410095027</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -37128,13 +37128,13 @@
         <v>0.7115849279999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3744947099122973</v>
+        <v>0.3739517652891211</v>
       </c>
       <c r="E18" s="2">
-        <v>0.3370902180877027</v>
+        <v>0.3376331627108788</v>
       </c>
       <c r="F18" s="2">
-        <v>47.37174788610794</v>
+        <v>47.44804863417215</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -37148,13 +37148,13 @@
         <v>-27.11310651</v>
       </c>
       <c r="D19" s="2">
-        <v>-27.5438473998268</v>
+        <v>-27.54938926709951</v>
       </c>
       <c r="E19" s="2">
-        <v>0.4307408898268008</v>
+        <v>0.4362827570995087</v>
       </c>
       <c r="F19" s="2">
-        <v>1.588681435924477</v>
+        <v>1.609121245249402</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -37168,13 +37168,13 @@
         <v>-27.11310651</v>
       </c>
       <c r="D20" s="2">
-        <v>-27.23774064641412</v>
+        <v>-27.24372630905024</v>
       </c>
       <c r="E20" s="2">
-        <v>0.124634136414123</v>
+        <v>0.1306197990502369</v>
       </c>
       <c r="F20" s="2">
-        <v>0.4596822439662338</v>
+        <v>0.4817588829301467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -37188,13 +37188,13 @@
         <v>1.256154901</v>
       </c>
       <c r="D21" s="2">
-        <v>1.24482130276022</v>
+        <v>1.24577262012292</v>
       </c>
       <c r="E21" s="2">
-        <v>0.01133359823977953</v>
+        <v>0.01038228087707971</v>
       </c>
       <c r="F21" s="2">
-        <v>0.9022452749065484</v>
+        <v>0.8265127866646526</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -37208,13 +37208,13 @@
         <v>-0.411970221</v>
       </c>
       <c r="D22" s="2">
-        <v>-0.4079864584638234</v>
+        <v>-0.4083136461662026</v>
       </c>
       <c r="E22" s="2">
-        <v>0.003983762536176605</v>
+        <v>0.003656574833797388</v>
       </c>
       <c r="F22" s="2">
-        <v>0.9670025485110499</v>
+        <v>0.8875823172173863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -37228,7 +37228,7 @@
         <v>0.411970221</v>
       </c>
       <c r="D23" s="2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>0.411970221</v>
@@ -37248,13 +37248,13 @@
         <v>0.31277346</v>
       </c>
       <c r="D24" s="2">
-        <v>0.2766114905449532</v>
+        <v>0.2771291464450493</v>
       </c>
       <c r="E24" s="2">
-        <v>0.03616196945504679</v>
+        <v>0.03564431355495074</v>
       </c>
       <c r="F24" s="2">
-        <v>11.56171289438906</v>
+        <v>11.39620783520147</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -37268,13 +37268,13 @@
         <v>1.256154901</v>
       </c>
       <c r="D25" s="2">
-        <v>1.24482130276022</v>
+        <v>1.24577262012292</v>
       </c>
       <c r="E25" s="2">
-        <v>0.01133359823977953</v>
+        <v>0.01038228087707971</v>
       </c>
       <c r="F25" s="2">
-        <v>0.9022452749065484</v>
+        <v>0.8265127866646526</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -37288,13 +37288,13 @@
         <v>13.58691961</v>
       </c>
       <c r="D26" s="2">
-        <v>13.34604174471157</v>
+        <v>13.34713340235344</v>
       </c>
       <c r="E26" s="2">
-        <v>0.2408778652884287</v>
+        <v>0.23978620764656</v>
       </c>
       <c r="F26" s="2">
-        <v>1.77286590487473</v>
+        <v>1.764831282802887</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -37308,13 +37308,13 @@
         <v>14.31166329</v>
       </c>
       <c r="D27" s="2">
-        <v>13.22085763393114</v>
+        <v>13.2230494730885</v>
       </c>
       <c r="E27" s="2">
-        <v>1.090805656068861</v>
+        <v>1.088613816911497</v>
       </c>
       <c r="F27" s="2">
-        <v>7.621795132862304</v>
+        <v>7.606480077491379</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -37328,13 +37328,13 @@
         <v>24.21926825</v>
       </c>
       <c r="D28" s="2">
-        <v>23.57782685062993</v>
+        <v>23.59463081086926</v>
       </c>
       <c r="E28" s="2">
-        <v>0.6414413993700734</v>
+        <v>0.6246374391307405</v>
       </c>
       <c r="F28" s="2">
-        <v>2.648475555697573</v>
+        <v>2.579092946504445</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -37348,13 +37348,13 @@
         <v>22.71962215</v>
       </c>
       <c r="D29" s="2">
-        <v>23.45877239210899</v>
+        <v>23.47574895819909</v>
       </c>
       <c r="E29" s="2">
-        <v>0.7391502421089946</v>
+        <v>0.7561268081990882</v>
       </c>
       <c r="F29" s="2">
-        <v>3.253356227621042</v>
+        <v>3.328078271755449</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -37388,13 +37388,13 @@
         <v>0.487406232</v>
       </c>
       <c r="D31" s="2">
-        <v>0.1196706323656415</v>
+        <v>0.1194971331821411</v>
       </c>
       <c r="E31" s="2">
-        <v>0.3677355996343585</v>
+        <v>0.3679090988178589</v>
       </c>
       <c r="F31" s="2">
-        <v>75.44745542653598</v>
+        <v>75.48305184941889</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -37408,13 +37408,13 @@
         <v>1.4708495</v>
       </c>
       <c r="D32" s="2">
-        <v>2.127255543491184</v>
+        <v>2.118659302796173</v>
       </c>
       <c r="E32" s="2">
-        <v>0.6564060434911836</v>
+        <v>0.6478098027961732</v>
       </c>
       <c r="F32" s="2">
-        <v>44.62768240334471</v>
+        <v>44.04324186778955</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -37448,13 +37448,13 @@
         <v>0.338</v>
       </c>
       <c r="D34" s="2">
-        <v>0.4970676046873637</v>
+        <v>0.4963469531636525</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1590676046873636</v>
+        <v>0.1583469531636525</v>
       </c>
       <c r="F34" s="2">
-        <v>47.06142150513717</v>
+        <v>46.84821099516346</v>
       </c>
     </row>
   </sheetData>
